--- a/크롤링, API/예전 파일/naver_crawling.xlsx
+++ b/크롤링, API/예전 파일/naver_crawling.xlsx
@@ -461,22 +461,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1531114021</t>
+          <t>1059845402</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>런디드오프</t>
+          <t>쿠레레</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>전남 목포시 호남로64번길 28-1 2층</t>
+          <t>전남 목포시 해안로229번길 19 1층</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1531114021/home</t>
+          <t>https://m.place.naver.com/restaurant/1059845402/home</t>
         </is>
       </c>
     </row>
@@ -486,22 +486,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16764370</t>
+          <t>1347862810</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>씨엘비베이커리</t>
+          <t>케이알갤러리</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>전남 목포시 영산로75번길 14 1층</t>
+          <t>전남 목포시 평화로 38 골든타워 6층</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/16764370/home</t>
+          <t>https://m.place.naver.com/restaurant/1347862810/home</t>
         </is>
       </c>
     </row>
@@ -511,22 +511,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16764370</t>
+          <t>1577501181</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>씨엘비베이커리</t>
+          <t>페어링</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>전남 목포시 영산로75번길 14 1층</t>
+          <t>전남 목포시 미항로 139</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/16764370/home</t>
+          <t>https://m.place.naver.com/restaurant/1577501181/home</t>
         </is>
       </c>
     </row>
@@ -536,22 +536,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1221239040</t>
+          <t>16764370</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>코롬방제과점</t>
+          <t>씨엘비베이커리</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>전남 목포시 영산로75번길 7</t>
+          <t>전남 목포시 영산로75번길 14 1층</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1221239040/home</t>
+          <t>https://m.place.naver.com/restaurant/16764370/home</t>
         </is>
       </c>
     </row>
@@ -561,22 +561,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1577501181</t>
+          <t>1221239040</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>페어링</t>
+          <t>코롬방제과점</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>전남 목포시 미항로 139</t>
+          <t>전남 목포시 영산로75번길 7</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1577501181/home</t>
+          <t>https://m.place.naver.com/restaurant/1221239040/home</t>
         </is>
       </c>
     </row>
@@ -586,22 +586,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1416812341</t>
+          <t>1484544973</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SUKSAN</t>
+          <t>커피창고로</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>전남 목포시 고하대로 588</t>
+          <t>전남 목포시 평화로 51</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1416812341/home</t>
+          <t>https://m.place.naver.com/restaurant/1484544973/home</t>
         </is>
       </c>
     </row>
@@ -611,22 +611,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1484544973</t>
+          <t>1272287731</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>커피창고로</t>
+          <t>요굴뚝</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>전남 목포시 평화로 51</t>
+          <t>전남 목포시 연산백련로7번길 8-4 1층 101호</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1484544973/home</t>
+          <t>https://m.place.naver.com/restaurant/1272287731/home</t>
         </is>
       </c>
     </row>
@@ -636,22 +636,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1086957001</t>
+          <t>1416812341</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>라니카이</t>
+          <t>SUKSAN</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>전남 목포시 북항로 188 106~9호 3, 4층</t>
+          <t>전남 목포시 고하대로 588</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1086957001/home</t>
+          <t>https://m.place.naver.com/restaurant/1416812341/home</t>
         </is>
       </c>
     </row>
@@ -661,22 +661,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1272287731</t>
+          <t>1338668703</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>요굴뚝</t>
+          <t>카페델마르</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>전남 목포시 연산백련로7번길 8-4 1층 101호</t>
+          <t>전남 목포시 해양대학로 77 3층</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1272287731/home</t>
+          <t>https://m.place.naver.com/restaurant/1338668703/home</t>
         </is>
       </c>
     </row>
@@ -686,22 +686,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1338668703</t>
+          <t>1779831903</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>카페델마르</t>
+          <t>대반동201</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>전남 목포시 해양대학로 77 3층</t>
+          <t>전남 목포시 해양대학로 59 유달유원지 2층</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1338668703/home</t>
+          <t>https://m.place.naver.com/restaurant/1779831903/home</t>
         </is>
       </c>
     </row>
@@ -711,22 +711,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1779831903</t>
+          <t>1086957001</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>대반동201</t>
+          <t>라니카이</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>전남 목포시 해양대학로 59 유달유원지 2층</t>
+          <t>전남 목포시 북항로 188 106~9호 3, 4층</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1779831903/home</t>
+          <t>https://m.place.naver.com/restaurant/1086957001/home</t>
         </is>
       </c>
     </row>
@@ -736,22 +736,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1154216296</t>
+          <t>1757446204</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>카페지제이</t>
+          <t>테라스201</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>전남 목포시 해양대학로 20 1층</t>
+          <t>전남 목포시 해양대학로 70-1 테라스201</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1154216296/home</t>
+          <t>https://m.place.naver.com/restaurant/1757446204/home</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1757446204</t>
+          <t>1124514954</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>테라스201</t>
+          <t>커피창고로</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>전남 목포시 해양대학로 70-1 테라스201</t>
+          <t>전남 목포시 청호로219번길 34-15 북항씨푸드타운 2차 102호</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1757446204/home</t>
+          <t>https://m.place.naver.com/restaurant/1124514954/home</t>
         </is>
       </c>
     </row>
@@ -786,22 +786,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1672332203</t>
+          <t>1256278263</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SONGJART</t>
+          <t>가비1935</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>전남 목포시 해안로173번길 15-3 송자르트 베이커리 카페 &amp; 레스토랑</t>
+          <t>전남 목포시 영산로 18</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1672332203/home</t>
+          <t>https://m.place.naver.com/restaurant/1256278263/home</t>
         </is>
       </c>
     </row>
@@ -811,22 +811,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1256278263</t>
+          <t>1086685070</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>가비1935</t>
+          <t>인디파사드</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>전남 목포시 영산로 18</t>
+          <t>전남 목포시 영산로29번길 9-2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1256278263/home</t>
+          <t>https://m.place.naver.com/restaurant/1086685070/home</t>
         </is>
       </c>
     </row>
@@ -836,22 +836,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1737058016</t>
+          <t>1531114021</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>오무아</t>
+          <t>런디드오프</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>전남 목포시 해안로148번길 23 1층</t>
+          <t>전남 목포시 호남로64번길 28-1 2층</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1737058016/home</t>
+          <t>https://m.place.naver.com/restaurant/1531114021/home</t>
         </is>
       </c>
     </row>
@@ -861,22 +861,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1086685070</t>
+          <t>1672332203</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>인디파사드</t>
+          <t>SONGJART</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>전남 목포시 영산로29번길 9-2</t>
+          <t>전남 목포시 해안로173번길 15-3 송자르트 베이커리 카페 &amp; 레스토랑</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1086685070/home</t>
+          <t>https://m.place.naver.com/restaurant/1672332203/home</t>
         </is>
       </c>
     </row>
@@ -886,22 +886,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1124514954</t>
+          <t>16784978</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>커피창고로</t>
+          <t>그린하우스제과점</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>전남 목포시 청호로219번길 34-15 북항씨푸드타운 2차 102호</t>
+          <t>전남 목포시 신흥로 24</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1124514954/home</t>
+          <t>https://m.place.naver.com/restaurant/16784978/home</t>
         </is>
       </c>
     </row>
@@ -911,22 +911,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1766620743</t>
+          <t>1737058016</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>인스파이어링 커피</t>
+          <t>오무아</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>전남 목포시 호남로64번길 22-1</t>
+          <t>전남 목포시 해안로148번길 23 1층</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1766620743/home</t>
+          <t>https://m.place.naver.com/restaurant/1737058016/home</t>
         </is>
       </c>
     </row>
@@ -936,22 +936,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1531114021</t>
+          <t>498689822</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>런디드오프</t>
+          <t>스트로베리팩토리</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>전남 목포시 호남로64번길 28-1 2층</t>
+          <t>전남 목포시 교육로 38 백상빌딩</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1531114021/home</t>
+          <t>https://m.place.naver.com/restaurant/498689822/home</t>
         </is>
       </c>
     </row>
@@ -961,22 +961,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>498689822</t>
+          <t>1876232900</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>스트로베리팩토리</t>
+          <t>spatial cafe</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>전남 목포시 교육로 38 백상빌딩</t>
+          <t>전남 목포시 청호로 179-1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/498689822/home</t>
+          <t>https://m.place.naver.com/restaurant/1876232900/home</t>
         </is>
       </c>
     </row>
@@ -1011,22 +1011,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1929334949</t>
+          <t>1398433486</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>목포딸기모찌 본점</t>
+          <t>큰별스터디카페</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>전남 목포시 번영로 167 1층</t>
+          <t>전남 목포시 청호로219번길 30 북항N노을스페이스 202호</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1929334949/home</t>
+          <t>https://m.place.naver.com/restaurant/1398433486/home</t>
         </is>
       </c>
     </row>
@@ -1034,20 +1034,24 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1486868804</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>데니스커피 목포노을공원점</t>
+          <t>롤앤베이크</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>전남 목포시 청호로219번길 34-15 북항 씨푸드타운 2차 C101,201호</t>
+          <t>전남 목포시 영산로40번길 3-2 1층</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1929334949/home</t>
+          <t>https://m.place.naver.com/restaurant/1486868804/home</t>
         </is>
       </c>
     </row>
@@ -1057,22 +1061,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1876232900</t>
+          <t>1305193977</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>spatial cafe</t>
+          <t>오거리숭커피</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>전남 목포시 청호로 179-1</t>
+          <t>전남 목포시 해안로249번길 38-1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1876232900/home</t>
+          <t>https://m.place.naver.com/restaurant/1305193977/home</t>
         </is>
       </c>
     </row>
@@ -1082,22 +1086,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1305193977</t>
+          <t>1099584939</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>오거리숭커피</t>
+          <t>차오르다</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>전남 목포시 해안로249번길 38-1</t>
+          <t>전남 목포시 미항로 141</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1305193977/home</t>
+          <t>https://m.place.naver.com/restaurant/1099584939/home</t>
         </is>
       </c>
     </row>
@@ -1132,22 +1136,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>419927842</t>
+          <t>34922679</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>룰리스x아흐레</t>
+          <t>브릭레인</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>전남 목포시 미항로 97</t>
+          <t>전남 목포시 영산로75번길 27 2F</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/419927842/home</t>
+          <t>https://m.place.naver.com/restaurant/34922679/home</t>
         </is>
       </c>
     </row>
@@ -1157,22 +1161,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1687774488</t>
+          <t>1766620743</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>무가보</t>
+          <t>인스파이어링 커피</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>전남 목포시 영산로 19-1 2층</t>
+          <t>전남 목포시 호남로64번길 22-1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1687774488/home</t>
+          <t>https://m.place.naver.com/restaurant/1766620743/home</t>
         </is>
       </c>
     </row>
@@ -1182,22 +1186,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1345452100</t>
+          <t>1361289728</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>하이디저트</t>
+          <t>유달동의로망스</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>전남 목포시 원산중앙로 51 127호(지도에 온고을명가 입력-&gt; 바로 맞은편 위치)</t>
+          <t>전남 목포시 번화로 19 1층</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1345452100/home</t>
+          <t>https://m.place.naver.com/restaurant/1361289728/home</t>
         </is>
       </c>
     </row>
@@ -1207,22 +1211,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1099584939</t>
+          <t>1745357014</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>차오르다</t>
+          <t>버터피크닉</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>전남 목포시 미항로 141</t>
+          <t>전남 목포시 하당로68번길 10-1 버터피크닉</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1099584939/home</t>
+          <t>https://m.place.naver.com/restaurant/1745357014/home</t>
         </is>
       </c>
     </row>
@@ -1232,22 +1236,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1725446516</t>
+          <t>1083756722</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>유달유업</t>
+          <t>망고루 체인본부</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>전남 목포시 북항로 119</t>
+          <t>전남 목포시 평화로 38 1층</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1725446516/home</t>
+          <t>https://m.place.naver.com/restaurant/1083756722/home</t>
         </is>
       </c>
     </row>
@@ -1257,22 +1261,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1361289728</t>
+          <t>31675174</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>유달동의로망스</t>
+          <t>딸기네집케이크</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>전남 목포시 번화로 19 1층</t>
+          <t>전남 목포시 하당로 78 1층</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1361289728/home</t>
+          <t>https://m.place.naver.com/restaurant/31675174/home</t>
         </is>
       </c>
     </row>
@@ -1282,22 +1286,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1745357014</t>
+          <t>1396795086</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>버터피크닉</t>
+          <t>카페산정</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>전남 목포시 하당로68번길 10-1 버터피크닉</t>
+          <t>전남 목포시 산정언덕로 11 카페산정</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1745357014/home</t>
+          <t>https://m.place.naver.com/restaurant/1396795086/home</t>
         </is>
       </c>
     </row>
@@ -1307,22 +1311,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>15018549</t>
+          <t>1134675621</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>행복이가득한집카페</t>
+          <t>온스</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>전남 목포시 해안로165번길 45</t>
+          <t>전남 목포시 미항로 145 온스카페</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/15018549/home</t>
+          <t>https://m.place.naver.com/restaurant/1134675621/home</t>
         </is>
       </c>
     </row>
@@ -1332,22 +1336,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1134675621</t>
+          <t>1283947890</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>온스</t>
+          <t>유달산장</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>전남 목포시 미항로 145 온스카페</t>
+          <t>전남 목포시 유달로 119</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1134675621/home</t>
+          <t>https://m.place.naver.com/restaurant/1283947890/home</t>
         </is>
       </c>
     </row>
@@ -1357,22 +1361,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>31675174</t>
+          <t>1725446516</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>딸기네집케이크</t>
+          <t>유달유업</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>전남 목포시 하당로 78 1층</t>
+          <t>전남 목포시 북항로 119</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/31675174/home</t>
+          <t>https://m.place.naver.com/restaurant/1725446516/home</t>
         </is>
       </c>
     </row>
@@ -1382,22 +1386,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>37928687</t>
+          <t>1888608512</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>since2014 목포과일모찌 본점</t>
+          <t>쌔맨</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>전남 목포시 영산로75번길 4 1층</t>
+          <t>전남 목포시 평화로61번길 10 1층</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/37928687/home</t>
+          <t>https://m.place.naver.com/restaurant/1888608512/home</t>
         </is>
       </c>
     </row>
@@ -1407,22 +1411,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1603000487</t>
+          <t>37928687</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>목포왕꽈배기 신자유시장본점</t>
+          <t>since2014 목포과일모찌 본점</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>전남 목포시 용당로 54-1</t>
+          <t>전남 목포시 영산로75번길 4 1층</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1603000487/home</t>
+          <t>https://m.place.naver.com/restaurant/37928687/home</t>
         </is>
       </c>
     </row>
@@ -1432,22 +1436,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1764848073</t>
+          <t>1345452100</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>레테커피</t>
+          <t>하이디저트</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>전남 목포시 하당로227번길 23-1 레테커피</t>
+          <t>전남 목포시 원산중앙로 51 127호(지도에 온고을명가 입력-&gt; 바로 맞은편 위치)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1764848073/home</t>
+          <t>https://m.place.naver.com/restaurant/1345452100/home</t>
         </is>
       </c>
     </row>
@@ -1457,22 +1461,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1396795086</t>
+          <t>33021712</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>카페산정</t>
+          <t>스타벅스 목포평화광장점</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>전남 목포시 산정언덕로 11 카페산정</t>
+          <t>전남 목포시 미항로 137</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1396795086/home</t>
+          <t>https://m.place.naver.com/restaurant/33021712/home</t>
         </is>
       </c>
     </row>
@@ -1482,22 +1486,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1380998961</t>
+          <t>38522658</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>캑티</t>
+          <t>기찻길315</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>전남 목포시 산정로21번길 11 1층</t>
+          <t>전남 목포시 용당로264번길 16 1~2층</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1380998961/home</t>
+          <t>https://m.place.naver.com/restaurant/38522658/home</t>
         </is>
       </c>
     </row>
@@ -1507,22 +1511,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1880401758</t>
+          <t>419927842</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>목포낭만샌드</t>
+          <t>룰리스x아흐레</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>전남 목포시 노적봉길 6 1층</t>
+          <t>전남 목포시 미항로 97</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1880401758/home</t>
+          <t>https://m.place.naver.com/restaurant/419927842/home</t>
         </is>
       </c>
     </row>
@@ -1532,22 +1536,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1759937892</t>
+          <t>1976435825</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>카페닻</t>
+          <t>인헤르또</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>전남 목포시 해양대학로139번길 23 카페닻</t>
+          <t>전남 목포시 평화로 57</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1759937892/home</t>
+          <t>https://m.place.naver.com/restaurant/1976435825/home</t>
         </is>
       </c>
     </row>
@@ -1557,22 +1561,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1158269852</t>
+          <t>1764848073</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>잉글리쉬크림티하우스영국다방</t>
+          <t>레테커피</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>전남 목포시 자유로20번길 31</t>
+          <t>전남 목포시 하당로227번길 23-1 레테커피</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1158269852/home</t>
+          <t>https://m.place.naver.com/restaurant/1764848073/home</t>
         </is>
       </c>
     </row>
@@ -1582,22 +1586,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1976435825</t>
+          <t>1158269852</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>인헤르또</t>
+          <t>잉글리쉬크림티하우스영국다방</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>전남 목포시 평화로 57</t>
+          <t>전남 목포시 자유로20번길 31</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1976435825/home</t>
+          <t>https://m.place.naver.com/restaurant/1158269852/home</t>
         </is>
       </c>
     </row>
@@ -1607,22 +1611,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1457769320</t>
+          <t>1587398393</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>그랜마당</t>
+          <t>하얀목화 아이스크림 유달본점</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>전남 목포시 비파로43번길 31-1</t>
+          <t>전남 목포시 유동로 55 1층 하얀목화</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1457769320/home</t>
+          <t>https://m.place.naver.com/restaurant/1587398393/home</t>
         </is>
       </c>
     </row>
@@ -1632,22 +1636,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1815550207</t>
+          <t>1157242712</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>커피이십센치목포점</t>
+          <t>커피파나쉐 전망대점</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>전남 목포시 복산길 24 1층</t>
+          <t>전남 목포시 고하도안길 234</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1815550207/home</t>
+          <t>https://m.place.naver.com/restaurant/1157242712/home</t>
         </is>
       </c>
     </row>
@@ -1682,22 +1686,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>16784978</t>
+          <t>1154216296</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>그린하우스제과점</t>
+          <t>카페지제이</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>전남 목포시 신흥로 24</t>
+          <t>전남 목포시 해양대학로 20 1층</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/16784978/home</t>
+          <t>https://m.place.naver.com/restaurant/1154216296/home</t>
         </is>
       </c>
     </row>
@@ -1707,22 +1711,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>34922679</t>
+          <t>1658382449</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>브릭레인</t>
+          <t>카페버닝</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>전남 목포시 영산로75번길 27 2F</t>
+          <t>전남 목포시 하당로 40 1층 카페버닝</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/34922679/home</t>
+          <t>https://m.place.naver.com/restaurant/1658382449/home</t>
         </is>
       </c>
     </row>
@@ -1732,22 +1736,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>33021712</t>
+          <t>1759937892</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>스타벅스 목포평화광장점</t>
+          <t>카페닻</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>전남 목포시 미항로 137</t>
+          <t>전남 목포시 해양대학로139번길 23 카페닻</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/33021712/home</t>
+          <t>https://m.place.naver.com/restaurant/1759937892/home</t>
         </is>
       </c>
     </row>
@@ -1757,22 +1761,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1828129077</t>
+          <t>1603000487</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>스마일찹쌀꽈배기목포점</t>
+          <t>목포왕꽈배기 신자유시장본점</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>전남 목포시 남악1로52번길 58</t>
+          <t>전남 목포시 용당로 54-1</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1828129077/home</t>
+          <t>https://m.place.naver.com/restaurant/1603000487/home</t>
         </is>
       </c>
     </row>
@@ -1782,22 +1786,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>38522658</t>
+          <t>15018549</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>기찻길315</t>
+          <t>행복이가득한집카페</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>전남 목포시 용당로264번길 16 1~2층</t>
+          <t>전남 목포시 해안로165번길 45</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/38522658/home</t>
+          <t>https://m.place.naver.com/restaurant/15018549/home</t>
         </is>
       </c>
     </row>
@@ -1807,22 +1811,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1083756722</t>
+          <t>37397589</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>망고루 체인본부</t>
+          <t>스타벅스 목포북항DT점</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>전남 목포시 평화로 38 1층</t>
+          <t>전남 목포시 고하대로 694</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1083756722/home</t>
+          <t>https://m.place.naver.com/restaurant/37397589/home</t>
         </is>
       </c>
     </row>
@@ -1832,22 +1836,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1283947890</t>
+          <t>1404945597</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>유달산장</t>
+          <t>밀키샵 목포점</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>전남 목포시 유달로 119</t>
+          <t>전남 목포시 미항로 87-1 1층</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1283947890/home</t>
+          <t>https://m.place.naver.com/restaurant/1404945597/home</t>
         </is>
       </c>
     </row>
@@ -1857,22 +1861,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>87403811</t>
+          <t>1882698561</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>박태민과자점</t>
+          <t>오리진 커피 로스터즈</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>전남 목포시 원산중앙로 7 진프라자 1f</t>
+          <t>전남 목포시 미항로 75 ORIGIN</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/87403811/home</t>
+          <t>https://m.place.naver.com/restaurant/1882698561/home</t>
         </is>
       </c>
     </row>
@@ -1882,22 +1886,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1848357224</t>
+          <t>1040676216</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>내안의 커피</t>
+          <t>유달샌드</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>전남 목포시 신흥로83번길 17 1층</t>
+          <t>전남 목포시 노적봉길 7</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1848357224/home</t>
+          <t>https://m.place.naver.com/restaurant/1040676216/home</t>
         </is>
       </c>
     </row>
@@ -1907,22 +1911,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>37397589</t>
+          <t>1435087828</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>스타벅스 목포북항DT점</t>
+          <t>카페인평광</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>전남 목포시 고하대로 694</t>
+          <t>전남 목포시 원형서로 46-1 양우비치팰리스 상가1층</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/37397589/home</t>
+          <t>https://m.place.naver.com/restaurant/1435087828/home</t>
         </is>
       </c>
     </row>
@@ -1932,22 +1936,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1509350693</t>
+          <t>1687774488</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>어썸</t>
+          <t>무가보</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>전남 목포시 후광대로105번길 17-2 1층</t>
+          <t>전남 목포시 영산로 19-1 2층</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1509350693/home</t>
+          <t>https://m.place.naver.com/restaurant/1687774488/home</t>
         </is>
       </c>
     </row>
@@ -1957,22 +1961,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1993331998</t>
+          <t>1475748479</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>낭만열차1953</t>
+          <t>카페 명지</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>전남 목포시 용당로263번길 8</t>
+          <t>전남 목포시 마인계터로40번길 2-16 명지</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1993331998/home</t>
+          <t>https://m.place.naver.com/restaurant/1475748479/home</t>
         </is>
       </c>
     </row>
@@ -1982,22 +1986,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1435087828</t>
+          <t>1556142868</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>카페인평광</t>
+          <t>티하우스클리프</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>전남 목포시 원형서로 46-1 양우비치팰리스 상가1층</t>
+          <t>전남 목포시 후광대로105번안길 33-7</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1435087828/home</t>
+          <t>https://m.place.naver.com/restaurant/1556142868/home</t>
         </is>
       </c>
     </row>
@@ -2007,22 +2011,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1888608512</t>
+          <t>1080128067</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>쌔맨</t>
+          <t>카페모퉁이</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>전남 목포시 평화로61번길 10 1층</t>
+          <t>전남 목포시 번영로 51 1,2층</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1888608512/home</t>
+          <t>https://m.place.naver.com/restaurant/1080128067/home</t>
         </is>
       </c>
     </row>
@@ -2032,22 +2036,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1934615046</t>
+          <t>1440455899</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>오늘의페이지</t>
+          <t>케이커</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>전남 목포시 동부로52번길 38-3</t>
+          <t>전남 목포시 영산로59번길 32-1 1층</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1934615046/home</t>
+          <t>https://m.place.naver.com/restaurant/1440455899/home</t>
         </is>
       </c>
     </row>
@@ -2057,22 +2061,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1663927263</t>
+          <t>1509350693</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>케이크벨라무르</t>
+          <t>어썸</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>전남 목포시 원형서로 46-1 1층 113호</t>
+          <t>전남 목포시 후광대로105번길 17-2 1층</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1663927263/home</t>
+          <t>https://m.place.naver.com/restaurant/1509350693/home</t>
         </is>
       </c>
     </row>
@@ -2082,22 +2086,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1440455899</t>
+          <t>1380998961</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>케이커</t>
+          <t>캑티</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>전남 목포시 영산로59번길 32-1 1층</t>
+          <t>전남 목포시 산정로21번길 11 1층</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1440455899/home</t>
+          <t>https://m.place.naver.com/restaurant/1380998961/home</t>
         </is>
       </c>
     </row>
@@ -2107,22 +2111,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1157242712</t>
+          <t>1149334085</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>커피파나쉐 전망대점</t>
+          <t>달몬트</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>전남 목포시 고하도안길 234</t>
+          <t>전남 목포시 해안로 79</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1157242712/home</t>
+          <t>https://m.place.naver.com/restaurant/1149334085/home</t>
         </is>
       </c>
     </row>
@@ -2132,22 +2136,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1522603377</t>
+          <t>87403811</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>호텔목화 카페&amp;베이커리</t>
+          <t>박태민과자점</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>전남 목포시 유동로36번길 15 호텔목화카페</t>
+          <t>전남 목포시 원산중앙로 7 진프라자 1f</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1522603377/home</t>
+          <t>https://m.place.naver.com/restaurant/87403811/home</t>
         </is>
       </c>
     </row>
@@ -2157,22 +2161,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1587398393</t>
+          <t>1522603377</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>하얀목화 아이스크림 유달본점</t>
+          <t>호텔목화 카페&amp;베이커리</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>전남 목포시 유동로 55 1층 하얀목화</t>
+          <t>전남 목포시 유동로36번길 15 호텔목화카페</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1587398393/home</t>
+          <t>https://m.place.naver.com/restaurant/1522603377/home</t>
         </is>
       </c>
     </row>
@@ -2182,22 +2186,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1552933416</t>
+          <t>1934615046</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>파흐</t>
+          <t>오늘의페이지</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>전남 목포시 삼학로 386 2동 1층(용해동)</t>
+          <t>전남 목포시 동부로52번길 38-3</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1552933416/home</t>
+          <t>https://m.place.naver.com/restaurant/1934615046/home</t>
         </is>
       </c>
     </row>
@@ -2207,22 +2211,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1556142868</t>
+          <t>1160869507</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>티하우스클리프</t>
+          <t>더스톤</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>전남 목포시 후광대로105번안길 33-7</t>
+          <t>전남 목포시 미항로 71 1층 더스톤</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1556142868/home</t>
+          <t>https://m.place.naver.com/restaurant/1160869507/home</t>
         </is>
       </c>
     </row>
@@ -2232,22 +2236,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1903557049</t>
+          <t>1510129472</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>빵집 오붓한생</t>
+          <t>끼아라</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>전남 목포시 해안로237번길 24 1층</t>
+          <t>전남 목포시 옥암로 168-6 1층</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1903557049/home</t>
+          <t>https://m.place.naver.com/restaurant/1510129472/home</t>
         </is>
       </c>
     </row>
@@ -2257,22 +2261,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1905076057</t>
+          <t>1163715721</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>또야미</t>
+          <t>오너리스 목포점</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>전남 목포시 영산로 648-24 라송센트럴 카운티5차 아파트 상가 103호</t>
+          <t>전남 목포시 미항로 87-1 1층 오너리스</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1905076057/home</t>
+          <t>https://m.place.naver.com/restaurant/1163715721/home</t>
         </is>
       </c>
     </row>
@@ -2282,22 +2286,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1770824382</t>
+          <t>1793167063</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>니즈커피</t>
+          <t>허니무화</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>전남 목포시 용해로59번길 15</t>
+          <t>전남 목포시 영산로75번길 1-2 무화과빵</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1770824382/home</t>
+          <t>https://m.place.naver.com/restaurant/1793167063/home</t>
         </is>
       </c>
     </row>
@@ -2307,22 +2311,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1940530613</t>
+          <t>1770824382</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>카페희온</t>
+          <t>니즈커피</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>전남 목포시 용해로86번길 12-1 1층 카페희온</t>
+          <t>전남 목포시 용해로59번길 15</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1940530613/home</t>
+          <t>https://m.place.naver.com/restaurant/1770824382/home</t>
         </is>
       </c>
     </row>
@@ -2332,22 +2336,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1404945597</t>
+          <t>1296301403</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>밀키샵 목포점</t>
+          <t>부바브루어스</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>전남 목포시 미항로 87-1 1층</t>
+          <t>전남 목포시 양을로232번길 3-1 1F 부바브루어스</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1404945597/home</t>
+          <t>https://m.place.naver.com/restaurant/1296301403/home</t>
         </is>
       </c>
     </row>
@@ -2357,22 +2361,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1193719699</t>
+          <t>1929334949</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>동굴카페씨크릿</t>
+          <t>목포딸기모찌 본점</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>전남 목포시 해안로237번길 30-3</t>
+          <t>전남 목포시 번영로 167 1층</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1193719699/home</t>
+          <t>https://m.place.naver.com/restaurant/1929334949/home</t>
         </is>
       </c>
     </row>
@@ -2382,22 +2386,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1015971169</t>
+          <t>1772567388</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>포비츠커피</t>
+          <t>CLAIRE</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>전남 목포시 비파로43번길 40 1층</t>
+          <t>전남 목포시 호남로64번길 31 보해상가 1층</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1015971169/home</t>
+          <t>https://m.place.naver.com/restaurant/1772567388/home</t>
         </is>
       </c>
     </row>
@@ -2407,22 +2411,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1040676216</t>
+          <t>1828129077</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>유달샌드</t>
+          <t>스마일찹쌀꽈배기목포점</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>전남 목포시 노적봉길 7</t>
+          <t>전남 목포시 남악1로52번길 58</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1040676216/home</t>
+          <t>https://m.place.naver.com/restaurant/1828129077/home</t>
         </is>
       </c>
     </row>
@@ -2432,22 +2436,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1658382449</t>
+          <t>1815550207</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>카페버닝</t>
+          <t>커피이십센치목포점</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>전남 목포시 하당로 40 1층 카페버닝</t>
+          <t>전남 목포시 복산길 24 1층</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1658382449/home</t>
+          <t>https://m.place.naver.com/restaurant/1815550207/home</t>
         </is>
       </c>
     </row>
@@ -2457,22 +2461,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1524636107</t>
+          <t>1669116958</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>프랭크커핀바 목포 평화광장점</t>
+          <t>버터크림</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>전남 목포시 평화로 44 1층</t>
+          <t>전남 목포시 비파로43번길 14</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1524636107/home</t>
+          <t>https://m.place.naver.com/restaurant/1669116958/home</t>
         </is>
       </c>
     </row>
@@ -2482,22 +2486,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1510129472</t>
+          <t>1905076057</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>끼아라</t>
+          <t>또야미</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>전남 목포시 옥암로 168-6 1층</t>
+          <t>전남 목포시 영산로 648-24 라송센트럴 카운티5차 아파트 상가 103호</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1510129472/home</t>
+          <t>https://m.place.naver.com/restaurant/1905076057/home</t>
         </is>
       </c>
     </row>
@@ -2507,22 +2511,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>1669116958</t>
+          <t>1457769320</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>버터크림</t>
+          <t>그랜마당</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>전남 목포시 비파로43번길 14</t>
+          <t>전남 목포시 비파로43번길 31-1</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1669116958/home</t>
+          <t>https://m.place.naver.com/restaurant/1457769320/home</t>
         </is>
       </c>
     </row>
@@ -2557,22 +2561,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>1860511805</t>
+          <t>1543336859</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>토브공작소</t>
+          <t>엔엠커피</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>전남 목포시 복산길 52-1 토브공작소</t>
+          <t>전남 목포시 용해로 57-2 1층</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1860511805/home</t>
+          <t>https://m.place.naver.com/restaurant/1543336859/home</t>
         </is>
       </c>
     </row>
@@ -2582,22 +2586,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>1160869507</t>
+          <t>1880401758</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>더스톤</t>
+          <t>목포낭만샌드</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>전남 목포시 미항로 71 1층 더스톤</t>
+          <t>전남 목포시 노적봉길 6 1층</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1160869507/home</t>
+          <t>https://m.place.naver.com/restaurant/1880401758/home</t>
         </is>
       </c>
     </row>
@@ -2607,22 +2611,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>1149334085</t>
+          <t>1805097605</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>달몬트</t>
+          <t>프랭크커핀바 목포북항점</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>전남 목포시 해안로 79</t>
+          <t>전남 목포시 원산로69번안길 2 1층</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1149334085/home</t>
+          <t>https://m.place.naver.com/restaurant/1805097605/home</t>
         </is>
       </c>
     </row>
@@ -2632,22 +2636,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>1163715721</t>
+          <t>1193719699</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>오너리스 목포점</t>
+          <t>동굴카페씨크릿</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>전남 목포시 미항로 87-1 1층 오너리스</t>
+          <t>전남 목포시 해안로237번길 30-3</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1163715721/home</t>
+          <t>https://m.place.naver.com/restaurant/1193719699/home</t>
         </is>
       </c>
     </row>
@@ -2657,22 +2661,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>1444754474</t>
+          <t>1860511805</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>아마빌레</t>
+          <t>토브공작소</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>전남 목포시 산정로238번길 4-1 카페 아마빌레 1,2층</t>
+          <t>전남 목포시 복산길 52-1 토브공작소</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1444754474/home</t>
+          <t>https://m.place.naver.com/restaurant/1860511805/home</t>
         </is>
       </c>
     </row>
@@ -2682,22 +2686,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>38511167</t>
+          <t>19980157</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>플로렌스&amp;탕후루</t>
+          <t>투썸플레이스 목포하당점</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>전남 목포시 삼일로 52-4 플로렌스</t>
+          <t>전남 목포시 통일대로 66</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/38511167/home</t>
+          <t>https://m.place.naver.com/restaurant/19980157/home</t>
         </is>
       </c>
     </row>
@@ -2707,22 +2711,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>1475748479</t>
+          <t>1014838237</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>카페 명지</t>
+          <t>라망</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>전남 목포시 마인계터로40번길 2-16 명지</t>
+          <t>전남 목포시 남악1로42번길 1 1층</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1475748479/home</t>
+          <t>https://m.place.naver.com/restaurant/1014838237/home</t>
         </is>
       </c>
     </row>
@@ -2732,22 +2736,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>1486868804</t>
+          <t>1993331998</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>롤앤베이크</t>
+          <t>낭만열차1953</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>전남 목포시 영산로40번길 3-2 1층</t>
+          <t>전남 목포시 용당로263번길 8</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1486868804/home</t>
+          <t>https://m.place.naver.com/restaurant/1993331998/home</t>
         </is>
       </c>
     </row>
@@ -2757,22 +2761,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>1080128067</t>
+          <t>1524636107</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>카페모퉁이</t>
+          <t>프랭크커핀바 목포 평화광장점</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>전남 목포시 번영로 51 1,2층</t>
+          <t>전남 목포시 평화로 44 1층</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1080128067/home</t>
+          <t>https://m.place.naver.com/restaurant/1524636107/home</t>
         </is>
       </c>
     </row>
@@ -2782,22 +2786,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1772567388</t>
+          <t>1444754474</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>CLAIRE</t>
+          <t>아마빌레</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>전남 목포시 호남로64번길 31 보해상가 1층</t>
+          <t>전남 목포시 산정로238번길 4-1 카페 아마빌레 1,2층</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1772567388/home</t>
+          <t>https://m.place.naver.com/restaurant/1444754474/home</t>
         </is>
       </c>
     </row>
@@ -2807,22 +2811,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>1929334949</t>
+          <t>1208119153</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>목포딸기모찌 본점</t>
+          <t>아틀리에능소화</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>전남 목포시 번영로 167 1층</t>
+          <t>전남 목포시 해안로173번길 42</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1929334949/home</t>
+          <t>https://m.place.naver.com/restaurant/1208119153/home</t>
         </is>
       </c>
     </row>
@@ -2832,22 +2836,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>19980157</t>
+          <t>1962642000</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>투썸플레이스 목포하당점</t>
+          <t>Cafe 리네아 하얀목화 유달2호점</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>전남 목포시 통일대로 66</t>
+          <t>전남 목포시 해안로165번길 41-1 1층</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/19980157/home</t>
+          <t>https://m.place.naver.com/restaurant/1962642000/home</t>
         </is>
       </c>
     </row>
@@ -2857,22 +2861,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>1611999380</t>
+          <t>1261194481</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>요거트아이스크림의정석 하당점</t>
+          <t>위드베이크</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>전남 목포시 부흥로 69 102동 상가 103호</t>
+          <t>전남 목포시 평화로 124 위드베이크</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1611999380/home</t>
+          <t>https://m.place.naver.com/restaurant/1261194481/home</t>
         </is>
       </c>
     </row>
@@ -2882,22 +2886,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>1178457410</t>
+          <t>1239299536</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>꾸움</t>
+          <t>목포샌드</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>전남 목포시 해안로165번길 48-1 1, 2층</t>
+          <t>전남 목포시 교육로 15 1층</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1178457410/home</t>
+          <t>https://m.place.naver.com/restaurant/1239299536/home</t>
         </is>
       </c>
     </row>
@@ -2907,22 +2911,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>1210076422</t>
+          <t>1015971169</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>다온커피</t>
+          <t>포비츠커피</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>전남 목포시 원산로145번길 12</t>
+          <t>전남 목포시 비파로43번길 40 1층</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1210076422/home</t>
+          <t>https://m.place.naver.com/restaurant/1015971169/home</t>
         </is>
       </c>
     </row>
@@ -2932,22 +2936,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>1876382239</t>
+          <t>1457978497</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>파더스베이글 목포점</t>
+          <t>백야</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>전남 목포시 백년대로 383 1층</t>
+          <t>전남 목포시 수문로 40-2 1층 백야</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1876382239/home</t>
+          <t>https://m.place.naver.com/restaurant/1457978497/home</t>
         </is>
       </c>
     </row>
@@ -2957,22 +2961,22 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>1457978497</t>
+          <t>915571826</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>백야</t>
+          <t>스타벅스 목포하당점</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>전남 목포시 수문로 40-2 1층 백야</t>
+          <t>전남 목포시 백년대로 293</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1457978497/home</t>
+          <t>https://m.place.naver.com/restaurant/915571826/home</t>
         </is>
       </c>
     </row>
@@ -2982,22 +2986,22 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>38427392</t>
+          <t>1552026181</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>산들소리찻집</t>
+          <t>몽글푸딩</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>전남 목포시 후광대로105번안길 2 산들소리찻집</t>
+          <t>전남 목포시 영산로40번길 9 1층</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/38427392/home</t>
+          <t>https://m.place.naver.com/restaurant/1552026181/home</t>
         </is>
       </c>
     </row>
@@ -3007,22 +3011,22 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>1962642000</t>
+          <t>1797316008</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Cafe 리네아 하얀목화 유달2호점</t>
+          <t>카페유달역</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>전남 목포시 해안로165번길 41-1 1층</t>
+          <t>전남 목포시 영산로75번길 3-2</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1962642000/home</t>
+          <t>https://m.place.naver.com/restaurant/1797316008/home</t>
         </is>
       </c>
     </row>
@@ -3032,22 +3036,22 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>1552026181</t>
+          <t>1716870844</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>몽글푸딩</t>
+          <t>봄날</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>전남 목포시 영산로40번길 9 1층</t>
+          <t>전남 목포시 죽교동 506-133</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1552026181/home</t>
+          <t>https://m.place.naver.com/restaurant/1716870844/home</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3061,22 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>1261194481</t>
+          <t>1903557049</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>위드베이크</t>
+          <t>빵집 오붓한생</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>전남 목포시 평화로 124 위드베이크</t>
+          <t>전남 목포시 해안로237번길 24 1층</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1261194481/home</t>
+          <t>https://m.place.naver.com/restaurant/1903557049/home</t>
         </is>
       </c>
     </row>
@@ -3082,22 +3086,22 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>1749309324</t>
+          <t>1486868804</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>커피다옴</t>
+          <t>롤앤베이크</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>전남 목포시 포미로10번길 16-1 커피다옴</t>
+          <t>전남 목포시 영산로40번길 3-2 1층</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1749309324/home</t>
+          <t>https://m.place.naver.com/restaurant/1486868804/home</t>
         </is>
       </c>
     </row>
@@ -3107,22 +3111,22 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>1435477014</t>
+          <t>1552933416</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>달꽃담은</t>
+          <t>파흐</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>전남 목포시 삼각로43번길 7-1 달꽃담은</t>
+          <t>전남 목포시 삼학로 386 2동 1층(용해동)</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1435477014/home</t>
+          <t>https://m.place.naver.com/restaurant/1552933416/home</t>
         </is>
       </c>
     </row>
@@ -3132,22 +3136,22 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>1205007714</t>
+          <t>1940530613</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>스타벅스 목포터미널DT점</t>
+          <t>카페희온</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>전남 목포시 영산로 495</t>
+          <t>전남 목포시 용해로86번길 12-1 1층 카페희온</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1205007714/home</t>
+          <t>https://m.place.naver.com/restaurant/1940530613/home</t>
         </is>
       </c>
     </row>
@@ -3157,22 +3161,22 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>1014838237</t>
+          <t>38511167</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>라망</t>
+          <t>플로렌스</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>전남 목포시 남악1로42번길 1 1층</t>
+          <t>전남 목포시 삼일로 52-4 플로렌스</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1014838237/home</t>
+          <t>https://m.place.naver.com/restaurant/38511167/home</t>
         </is>
       </c>
     </row>
@@ -3182,22 +3186,22 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>1989843578</t>
+          <t>1573483059</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>소문난만두찐빵</t>
+          <t>더왈츠</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>전남 목포시 석현로 28 청호시장</t>
+          <t>전남 목포시 하당로 36</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1989843578/home</t>
+          <t>https://m.place.naver.com/restaurant/1573483059/home</t>
         </is>
       </c>
     </row>
@@ -3207,22 +3211,22 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>1805097605</t>
+          <t>1625338735</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>프랭크커핀바 목포북항점</t>
+          <t>시그니처 커피 로스터리</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>전남 목포시 원산로69번안길 2 1층</t>
+          <t>전남 목포시 삼학로334번길 10</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1805097605/home</t>
+          <t>https://m.place.naver.com/restaurant/1625338735/home</t>
         </is>
       </c>
     </row>
@@ -3232,22 +3236,22 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>1011842337</t>
+          <t>1946286957</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>메이커</t>
+          <t>메가MGC커피 목포역점</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>전남 목포시 하당로60번길 10-2 1층</t>
+          <t>전남 목포시 수문로 14-2</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1011842337/home</t>
+          <t>https://m.place.naver.com/restaurant/1946286957/home</t>
         </is>
       </c>
     </row>
@@ -3257,22 +3261,22 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>35221648</t>
+          <t>1011842337</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>스타벅스 목포옥암점</t>
+          <t>메이커</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>전남 목포시 백년대로375번길 1</t>
+          <t>전남 목포시 하당로60번길 10-2 1층</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/35221648/home</t>
+          <t>https://m.place.naver.com/restaurant/1011842337/home</t>
         </is>
       </c>
     </row>
@@ -3282,22 +3286,22 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>1296301403</t>
+          <t>1027299952</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>부바브루어스</t>
+          <t>테이크목포</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>전남 목포시 양을로232번길 3-1 1F 부바브루어스</t>
+          <t>전남 목포시 영산로 15-1 1층</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1296301403/home</t>
+          <t>https://m.place.naver.com/restaurant/1027299952/home</t>
         </is>
       </c>
     </row>
@@ -3307,22 +3311,22 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>1625338735</t>
+          <t>1205007714</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>시그니처 커피 로스터리</t>
+          <t>스타벅스 목포터미널DT점</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>전남 목포시 삼학로334번길 10</t>
+          <t>전남 목포시 영산로 495</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1625338735/home</t>
+          <t>https://m.place.naver.com/restaurant/1205007714/home</t>
         </is>
       </c>
     </row>
@@ -3330,24 +3334,12 @@
       <c r="A117" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>1201138609</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>매머드익스프레스 목포하당점</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>전남 목포시 비파로 96 1층 상가 113호</t>
-        </is>
-      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1201138609/home</t>
+          <t>https://m.place.naver.com/restaurant/1205007714/home</t>
         </is>
       </c>
     </row>
@@ -3357,22 +3349,22 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>1797316008</t>
+          <t>1178457410</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>카페유달역</t>
+          <t>꾸움</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>전남 목포시 영산로75번길 3-2</t>
+          <t>전남 목포시 해안로165번길 48-1 1, 2층</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1797316008/home</t>
+          <t>https://m.place.naver.com/restaurant/1178457410/home</t>
         </is>
       </c>
     </row>
@@ -3382,22 +3374,22 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>1727614048</t>
+          <t>1876382239</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>카페마일로 목포평화광장점</t>
+          <t>파더스베이글 목포점</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>전남 목포시 평화로83번길 16 1, 2층 101, 201호</t>
+          <t>전남 목포시 백년대로 383 1층</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1727614048/home</t>
+          <t>https://m.place.naver.com/restaurant/1876382239/home</t>
         </is>
       </c>
     </row>
@@ -3407,22 +3399,22 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>1208119153</t>
+          <t>1104803514</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>아틀리에능소화</t>
+          <t>은드림</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>전남 목포시 해안로173번길 42</t>
+          <t>전남 목포시 복산길12번길 10</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1208119153/home</t>
+          <t>https://m.place.naver.com/restaurant/1104803514/home</t>
         </is>
       </c>
     </row>
@@ -3432,22 +3424,22 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>1302788714</t>
+          <t>16820539</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>더뷰</t>
+          <t>탐앤탐스 목포하당점</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>전남 목포시 해양대학로 66-2 더뷰</t>
+          <t>전남 목포시 신흥로83번길 27</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1302788714/home</t>
+          <t>https://m.place.naver.com/restaurant/16820539/home</t>
         </is>
       </c>
     </row>
@@ -3457,22 +3449,22 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>1992462991</t>
+          <t>38427392</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>천사카롱제과점</t>
+          <t>산들소리찻집</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>전남 목포시 비파로 52 2층</t>
+          <t>전남 목포시 후광대로105번안길 2 산들소리찻집</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1992462991/home</t>
+          <t>https://m.place.naver.com/restaurant/38427392/home</t>
         </is>
       </c>
     </row>
@@ -3482,22 +3474,22 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>1059845402</t>
+          <t>1872993316</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>쿠레레</t>
+          <t>카페 수무</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>전남 목포시 해안로229번길 19 1층</t>
+          <t>전남 목포시 유달로 224 1층, 옥상층</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1059845402/home</t>
+          <t>https://m.place.naver.com/restaurant/1872993316/home</t>
         </is>
       </c>
     </row>
@@ -3507,22 +3499,22 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>1163770818</t>
+          <t>1897321059</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>온후</t>
+          <t>성수동꿀꽈배기 목포점</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>전남 목포시 산정로37번길 12 1층 카페 온후</t>
+          <t>전남 목포시 부흥로 32 하당초원아파트 상가 1동</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1163770818/home</t>
+          <t>https://m.place.naver.com/restaurant/1897321059/home</t>
         </is>
       </c>
     </row>
@@ -3532,22 +3524,22 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>1872993316</t>
+          <t>1726283558</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>카페 수무</t>
+          <t>평화다락방</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>전남 목포시 유달로 224 1층, 옥상층</t>
+          <t>전남 목포시 평화로 38-2</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1872993316/home</t>
+          <t>https://m.place.naver.com/restaurant/1726283558/home</t>
         </is>
       </c>
     </row>
@@ -3557,22 +3549,22 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>915571826</t>
+          <t>1773990610</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>스타벅스 목포하당점</t>
+          <t>마샤</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>전남 목포시 백년대로 293</t>
+          <t>전남 목포시 양을로397번길 29 송정빌딩</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/915571826/home</t>
+          <t>https://m.place.naver.com/restaurant/1773990610/home</t>
         </is>
       </c>
     </row>
@@ -3582,22 +3574,22 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>1280262029</t>
+          <t>1435477014</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>WAVE</t>
+          <t>달꽃담은</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>전남 목포시 수문로 15-2 1층 웨이브 카페, 2층 웨이브 공방</t>
+          <t>전남 목포시 삼각로43번길 7-1 달꽃담은</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1280262029/home</t>
+          <t>https://m.place.naver.com/restaurant/1435477014/home</t>
         </is>
       </c>
     </row>
@@ -3607,22 +3599,22 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>1532052136</t>
+          <t>1749309324</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>그리핀</t>
+          <t>커피다옴</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>전남 목포시 원산로145번안길 6-1</t>
+          <t>전남 목포시 포미로10번길 16-1 커피다옴</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1532052136/home</t>
+          <t>https://m.place.naver.com/restaurant/1749309324/home</t>
         </is>
       </c>
     </row>
@@ -3632,22 +3624,22 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>1282441242</t>
+          <t>1222202619</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>디저트39 목포평화광장점</t>
+          <t>슬로멜</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>전남 목포시 원형로 37-1</t>
+          <t>전남 목포시 영산로40번길 5 , 1층(중앙동1가)</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1282441242/home</t>
+          <t>https://m.place.naver.com/restaurant/1222202619/home</t>
         </is>
       </c>
     </row>
@@ -3657,22 +3649,22 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>1010995398</t>
+          <t>1430122872</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>담을꿈굿즈샵, 오월의하루공방카페</t>
+          <t>시루위에꽃</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>전남 목포시 영산로75번길 4-2 1층 담을꿈(구)오월의하루</t>
+          <t>전남 목포시 하당로68번길 15-1 시루위에꽃</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1010995398/home</t>
+          <t>https://m.place.naver.com/restaurant/1430122872/home</t>
         </is>
       </c>
     </row>
@@ -3682,22 +3674,22 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>1897321059</t>
+          <t>1920318746</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>성수동꿀꽈배기 목포점</t>
+          <t>토브</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>전남 목포시 부흥로 32 하당초원아파트 상가 1동</t>
+          <t>전남 목포시 삼향천로 25 1층</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1897321059/home</t>
+          <t>https://m.place.naver.com/restaurant/1920318746/home</t>
         </is>
       </c>
     </row>
@@ -3707,22 +3699,22 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>1785476929</t>
+          <t>11770908</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>메가MGC커피 목포평화광장점</t>
+          <t>엔제리너스 목포옥암점</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>전남 목포시 원형로 48 1층 메가커피</t>
+          <t>전남 목포시 옥암로 82</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1785476929/home</t>
+          <t>https://m.place.naver.com/restaurant/11770908/home</t>
         </is>
       </c>
     </row>
@@ -3732,22 +3724,22 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>1027299952</t>
+          <t>1992462991</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>테이크목포</t>
+          <t>천사카롱제과점</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>전남 목포시 영산로 15-1 1층</t>
+          <t>전남 목포시 비파로 52 2층</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1027299952/home</t>
+          <t>https://m.place.naver.com/restaurant/1992462991/home</t>
         </is>
       </c>
     </row>
@@ -3757,22 +3749,22 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>38290527</t>
+          <t>1210076422</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>와플킹 목포점</t>
+          <t>다온커피</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>전남 목포시 산정로186번길 1 1층</t>
+          <t>전남 목포시 원산로145번길 12</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/38290527/home</t>
+          <t>https://m.place.naver.com/restaurant/1210076422/home</t>
         </is>
       </c>
     </row>
@@ -3782,22 +3774,22 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>1726283558</t>
+          <t>1727614048</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>평화다락방</t>
+          <t>카페마일로 목포평화광장점</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>전남 목포시 평화로 38-2</t>
+          <t>전남 목포시 평화로83번길 16 1, 2층 101, 201호</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1726283558/home</t>
+          <t>https://m.place.naver.com/restaurant/1727614048/home</t>
         </is>
       </c>
     </row>
@@ -3807,22 +3799,22 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>1920318746</t>
+          <t>1207632522</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>토브</t>
+          <t>꿀비</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>전남 목포시 삼향천로 25 1층</t>
+          <t>전남 목포시 하당로34번길 5</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1920318746/home</t>
+          <t>https://m.place.naver.com/restaurant/1207632522/home</t>
         </is>
       </c>
     </row>
@@ -3832,22 +3824,22 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>1207632522</t>
+          <t>1603055730</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>꿀비</t>
+          <t>리본스터디카페 하당점</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>전남 목포시 하당로34번길 5</t>
+          <t>전남 목포시 비파로43번길 7 2층, 리본스터디카페 하당점</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1207632522/home</t>
+          <t>https://m.place.naver.com/restaurant/1603055730/home</t>
         </is>
       </c>
     </row>
@@ -3857,22 +3849,22 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>1709482285</t>
+          <t>32670485</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>카페판도라</t>
+          <t>떡이야 하당점</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>전남 목포시 평화로43번길 11-1 1층</t>
+          <t>전남 목포시 신흥로 67 떡이야</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1709482285/home</t>
+          <t>https://m.place.naver.com/restaurant/32670485/home</t>
         </is>
       </c>
     </row>
@@ -3882,22 +3874,22 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>1543336859</t>
+          <t>1059845402</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>엔엠커피</t>
+          <t>쿠레레</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>전남 목포시 용해로 57-2 1층</t>
+          <t>전남 목포시 해안로229번길 19 1층</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1543336859/home</t>
+          <t>https://m.place.naver.com/restaurant/1059845402/home</t>
         </is>
       </c>
     </row>
@@ -3907,22 +3899,22 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>1178531821</t>
+          <t>35221648</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>매머드익스프레스 목포삼학점</t>
+          <t>스타벅스 목포옥암점</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>전남 목포시 용당로 69 1층</t>
+          <t>전남 목포시 백년대로375번길 1</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1178531821/home</t>
+          <t>https://m.place.naver.com/restaurant/35221648/home</t>
         </is>
       </c>
     </row>
@@ -3957,22 +3949,22 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>31155679</t>
+          <t>1608224142</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>어쩌면사무소</t>
+          <t>사르르호두</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>전남 목포시 소영길75번길 9</t>
+          <t>전남 목포시 영산로75번길 20-1 1층</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/31155679/home</t>
+          <t>https://m.place.naver.com/restaurant/1608224142/home</t>
         </is>
       </c>
     </row>
@@ -3982,22 +3974,22 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>1222202619</t>
+          <t>1413067753</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>슬로멜</t>
+          <t>대반동예스</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>전남 목포시 영산로40번길 5 , 1층(중앙동1가)</t>
+          <t>전남 목포시 해안로 6 대반동 예스 카페</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1222202619/home</t>
+          <t>https://m.place.naver.com/restaurant/1413067753/home</t>
         </is>
       </c>
     </row>
@@ -4007,22 +3999,22 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>32670485</t>
+          <t>1989843578</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>떡이야 하당점</t>
+          <t>소문난만두찐빵</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>전남 목포시 신흥로 67 떡이야</t>
+          <t>전남 목포시 석현로 28 청호시장</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/32670485/home</t>
+          <t>https://m.place.naver.com/restaurant/1989843578/home</t>
         </is>
       </c>
     </row>
@@ -4032,22 +4024,22 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>1232083071</t>
+          <t>1302788714</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>메이비</t>
+          <t>더뷰</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>전남 목포시 하당로60번길 15 1층</t>
+          <t>전남 목포시 해양대학로 66-2 더뷰</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1232083071/home</t>
+          <t>https://m.place.naver.com/restaurant/1302788714/home</t>
         </is>
       </c>
     </row>
@@ -4057,22 +4049,22 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>1773990610</t>
+          <t>1280262029</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>마샤</t>
+          <t>WAVE</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>전남 목포시 양을로397번길 29 송정빌딩</t>
+          <t>전남 목포시 수문로 15-2 1층 웨이브 카페, 2층 웨이브 공방</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1773990610/home</t>
+          <t>https://m.place.naver.com/restaurant/1280262029/home</t>
         </is>
       </c>
     </row>
@@ -4082,22 +4074,22 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>1239299536</t>
+          <t>1480065651</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>목포샌드</t>
+          <t>마마케끄</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>전남 목포시 교육로 15 1층</t>
+          <t>전남 목포시 연산백련로 27 101호 마마케끄</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1239299536/home</t>
+          <t>https://m.place.naver.com/restaurant/1480065651/home</t>
         </is>
       </c>
     </row>
@@ -4107,22 +4099,22 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>16800781</t>
+          <t>1193890647</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>아르볼</t>
+          <t>동주</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>전남 목포시 영산로565번길 9 상가동 108호</t>
+          <t>전남 목포시 석현로 28 140호 4번출구와5번출구사이</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/16800781/home</t>
+          <t>https://m.place.naver.com/restaurant/1193890647/home</t>
         </is>
       </c>
     </row>
@@ -4132,22 +4124,22 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>11770908</t>
+          <t>1163770818</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>엔제리너스 목포옥암점</t>
+          <t>온후</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>전남 목포시 옥암로 82</t>
+          <t>전남 목포시 산정로37번길 12 1층 카페 온후</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/11770908/home</t>
+          <t>https://m.place.naver.com/restaurant/1163770818/home</t>
         </is>
       </c>
     </row>
@@ -4157,22 +4149,22 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>1277913877</t>
+          <t>1102363383</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>유다원</t>
+          <t>TADAH</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>전남 목포시 양을로143번길 3-1 유다원</t>
+          <t>전남 목포시 연산백련로21번길 8-1 1층</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1277913877/home</t>
+          <t>https://m.place.naver.com/restaurant/1102363383/home</t>
         </is>
       </c>
     </row>
@@ -4182,22 +4174,22 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>1869172777</t>
+          <t>1848357224</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>목포소금샌드낭만</t>
+          <t>내안의 커피</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>전남 목포시 영산로59번길 27-2 1층</t>
+          <t>전남 목포시 신흥로83번길 17 1층</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1869172777/home</t>
+          <t>https://m.place.naver.com/restaurant/1848357224/home</t>
         </is>
       </c>
     </row>
@@ -4207,22 +4199,22 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>1789330703</t>
+          <t>1945784295</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>우노커피</t>
+          <t>영현빵집</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>전남 목포시 산대로 80-1</t>
+          <t>전남 목포시 용해지구로88번길 8 상가동 105호</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1789330703/home</t>
+          <t>https://m.place.naver.com/restaurant/1945784295/home</t>
         </is>
       </c>
     </row>
@@ -4257,22 +4249,22 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>1480065651</t>
+          <t>31155679</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>마마케끄</t>
+          <t>어쩌면사무소</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>전남 목포시 연산백련로 27 101호 마마케끄</t>
+          <t>전남 목포시 소영길75번길 9</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1480065651/home</t>
+          <t>https://m.place.naver.com/restaurant/31155679/home</t>
         </is>
       </c>
     </row>
@@ -4282,22 +4274,22 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>1946286957</t>
+          <t>1785476929</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>메가MGC커피 목포역점</t>
+          <t>메가MGC커피 목포평화광장점</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>전남 목포시 수문로 14-2</t>
+          <t>전남 목포시 원형로 48 1층 메가커피</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1946286957/home</t>
+          <t>https://m.place.naver.com/restaurant/1785476929/home</t>
         </is>
       </c>
     </row>
@@ -4307,22 +4299,22 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>1377431962</t>
+          <t>1843732447</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>카페 디망쉬</t>
+          <t>스타벅스 목포용해DT점</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>전남 목포시 유동로42번길 5 카페 디망쉬</t>
+          <t>전남 목포시 대양로 133</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1377431962/home</t>
+          <t>https://m.place.naver.com/restaurant/1843732447/home</t>
         </is>
       </c>
     </row>
@@ -4332,22 +4324,22 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>1971203457</t>
+          <t>1010995398</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>마지아레이크</t>
+          <t>담을꿈굿즈샵, 오월의하루공방카페</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>전남 목포시 유동로 45-1 1층</t>
+          <t>전남 목포시 영산로75번길 4-2 1층 담을꿈(구)오월의하루</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1971203457/home</t>
+          <t>https://m.place.naver.com/restaurant/1010995398/home</t>
         </is>
       </c>
     </row>
@@ -4357,22 +4349,22 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>1413067753</t>
+          <t>1611999380</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>대반동예스</t>
+          <t>요거트아이스크림의정석 하당점</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>전남 목포시 해안로 6 1층</t>
+          <t>전남 목포시 부흥로 69 102동 상가 103호</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1413067753/home</t>
+          <t>https://m.place.naver.com/restaurant/1611999380/home</t>
         </is>
       </c>
     </row>
@@ -4382,22 +4374,22 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>16820539</t>
+          <t>1282441242</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>탐앤탐스 목포하당점</t>
+          <t>디저트39 목포평화광장점</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>전남 목포시 신흥로83번길 27</t>
+          <t>전남 목포시 원형로 37-1</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/16820539/home</t>
+          <t>https://m.place.naver.com/restaurant/1282441242/home</t>
         </is>
       </c>
     </row>
@@ -4407,22 +4399,22 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>1716870844</t>
+          <t>35168713</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>봄날</t>
+          <t>일층카페</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>전남 목포시 죽교동 506-133</t>
+          <t>전남 목포시 하당로 38-1</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1716870844/home</t>
+          <t>https://m.place.naver.com/restaurant/35168713/home</t>
         </is>
       </c>
     </row>
@@ -4432,22 +4424,22 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>1126999692</t>
+          <t>1869172777</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>와플대학 목포북항캠퍼스</t>
+          <t>목포소금샌드낭만</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>전남 목포시 원산중앙로 8</t>
+          <t>전남 목포시 영산로59번길 27-2 1층</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1126999692/home</t>
+          <t>https://m.place.naver.com/restaurant/1869172777/home</t>
         </is>
       </c>
     </row>
@@ -4457,22 +4449,22 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>1270934515</t>
+          <t>1608482804</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>다좌원</t>
+          <t>솔마을과자점</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>전남 목포시 번화로 51 다좌원</t>
+          <t>전남 목포시 마파지로 86-7 1층 솔마을과자점</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1270934515/home</t>
+          <t>https://m.place.naver.com/restaurant/1608482804/home</t>
         </is>
       </c>
     </row>
@@ -4482,22 +4474,22 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>1806406002</t>
+          <t>1232083071</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>할리스 목포하당점</t>
+          <t>메이비</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>전남 목포시 비파로51번길 37</t>
+          <t>전남 목포시 하당로60번길 15 1층</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1806406002/home</t>
+          <t>https://m.place.naver.com/restaurant/1232083071/home</t>
         </is>
       </c>
     </row>
@@ -4507,22 +4499,22 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>1608482804</t>
+          <t>1709482285</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>솔마을과자점</t>
+          <t>카페판도라</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>전남 목포시 마파지로 86-7 1층 솔마을과자점</t>
+          <t>전남 목포시 평화로43번길 11-1 1층</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1608482804/home</t>
+          <t>https://m.place.naver.com/restaurant/1709482285/home</t>
         </is>
       </c>
     </row>
@@ -4532,22 +4524,22 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>1347862810</t>
+          <t>1490998101</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>케이알갤러리</t>
+          <t>당거</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>전남 목포시 평화로 38 골든타워 6층</t>
+          <t>전남 목포시 영산로 54</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1347862810/home</t>
+          <t>https://m.place.naver.com/restaurant/1490998101/home</t>
         </is>
       </c>
     </row>
@@ -4557,22 +4549,22 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>1594919311</t>
+          <t>36256160</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>빽다방 목포장미의거리점</t>
+          <t>이디야커피 목포평화광장점</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>전남 목포시 비파로51번길 31</t>
+          <t>전남 목포시 미항로 131</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1594919311/home</t>
+          <t>https://m.place.naver.com/restaurant/36256160/home</t>
         </is>
       </c>
     </row>
@@ -4582,22 +4574,22 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>1319295367</t>
+          <t>1789330703</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>오늘도푸름</t>
+          <t>우노커피</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>전남 목포시 수문로35번길 5 상가 B호</t>
+          <t>전남 목포시 산대로 80-1</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1319295367/home</t>
+          <t>https://m.place.naver.com/restaurant/1789330703/home</t>
         </is>
       </c>
     </row>
@@ -4607,22 +4599,22 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>1945784295</t>
+          <t>1751773176</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>영현빵집</t>
+          <t>공차 목포북항점</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>전남 목포시 용해지구로88번길 8 상가동 105호</t>
+          <t>전남 목포시 청호로 180</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1945784295/home</t>
+          <t>https://m.place.naver.com/restaurant/1751773176/home</t>
         </is>
       </c>
     </row>
@@ -4632,22 +4624,22 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>1275994797</t>
+          <t>1663927263</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>카페유달</t>
+          <t>케이크벨라무르</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>전남 목포시 북교길 6</t>
+          <t>전남 목포시 원형서로 46-1 1층 113호</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1275994797/home</t>
+          <t>https://m.place.naver.com/restaurant/1663927263/home</t>
         </is>
       </c>
     </row>
@@ -4657,22 +4649,22 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>1430122872</t>
+          <t>1532052136</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>시루위에꽃</t>
+          <t>그리핀</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>전남 목포시 하당로68번길 15-1 시루위에꽃</t>
+          <t>전남 목포시 원산로145번안길 6-1</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1430122872/home</t>
+          <t>https://m.place.naver.com/restaurant/1532052136/home</t>
         </is>
       </c>
     </row>
@@ -4682,22 +4674,22 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>1843732447</t>
+          <t>1126999692</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>스타벅스 목포용해DT점</t>
+          <t>와플대학 목포북항캠퍼스</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>전남 목포시 대양로 133</t>
+          <t>전남 목포시 원산중앙로 8</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1843732447/home</t>
+          <t>https://m.place.naver.com/restaurant/1126999692/home</t>
         </is>
       </c>
     </row>
@@ -4707,22 +4699,22 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>62511776</t>
+          <t>1429698648</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>이디야커피 목포북항점</t>
+          <t>프롬서산카페</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>전남 목포시 청호로219번길 34-15 104, 204호 이디야커피 목포북항점</t>
+          <t>전남 목포시 보리마당로22번길 13</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/62511776/home</t>
+          <t>https://m.place.naver.com/restaurant/1429698648/home</t>
         </is>
       </c>
     </row>
@@ -4732,22 +4724,22 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>1104803514</t>
+          <t>1806406002</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>은드림</t>
+          <t>할리스 목포하당점</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>전남 목포시 복산길12번길 10</t>
+          <t>전남 목포시 비파로51번길 37</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1104803514/home</t>
+          <t>https://m.place.naver.com/restaurant/1806406002/home</t>
         </is>
       </c>
     </row>
@@ -4757,22 +4749,22 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>1761951799</t>
+          <t>62511776</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>씨엘비 베이커리 북항점</t>
+          <t>이디야커피 목포북항점</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>전남 목포시 해양대학로 240 1층</t>
+          <t>전남 목포시 청호로219번길 34-15 104, 204호 이디야커피 목포북항점</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1761951799/home</t>
+          <t>https://m.place.naver.com/restaurant/62511776/home</t>
         </is>
       </c>
     </row>
@@ -4782,22 +4774,22 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>1378269987</t>
+          <t>1761951799</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>무유</t>
+          <t>씨엘비 베이커리 북항점</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>전남 목포시 장미로 5</t>
+          <t>전남 목포시 해양대학로 240 1층</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1378269987/home</t>
+          <t>https://m.place.naver.com/restaurant/1761951799/home</t>
         </is>
       </c>
     </row>
@@ -4807,22 +4799,22 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>36867617</t>
+          <t>1347862810</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>크리스피크림도넛 목포상동점</t>
+          <t>케이알갤러리</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>전남 목포시 백년대로 340</t>
+          <t>전남 목포시 평화로 38 골든타워 6층</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/36867617/home</t>
+          <t>https://m.place.naver.com/restaurant/1347862810/home</t>
         </is>
       </c>
     </row>
@@ -4832,22 +4824,22 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>1371971386</t>
+          <t>809435540</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>봉명동내커피 목포1호점</t>
+          <t>차휴</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>전남 목포시 옥암로 95 1층 2111호</t>
+          <t>전남 목포시 산정로238번길 6</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1371971386/home</t>
+          <t>https://m.place.naver.com/restaurant/809435540/home</t>
         </is>
       </c>
     </row>
@@ -4857,22 +4849,22 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>1571264335</t>
+          <t>1319295367</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>베르시</t>
+          <t>오늘도푸름</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>전남 목포시 연산백련로7번길 6 1층 베르시</t>
+          <t>전남 목포시 수문로35번길 5 상가 B호</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1571264335/home</t>
+          <t>https://m.place.naver.com/restaurant/1319295367/home</t>
         </is>
       </c>
     </row>
@@ -4907,22 +4899,22 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>36256160</t>
+          <t>16800781</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>이디야커피 목포평화광장점</t>
+          <t>아르볼</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>전남 목포시 미항로 131</t>
+          <t>전남 목포시 영산로565번길 9 상가동 108호</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/36256160/home</t>
+          <t>https://m.place.naver.com/restaurant/16800781/home</t>
         </is>
       </c>
     </row>
@@ -4932,22 +4924,22 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>35168713</t>
+          <t>1599376883</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>일층카페</t>
+          <t>포니케이크</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>전남 목포시 하당로 38-1</t>
+          <t>전남 목포시 신흥로83번길 20 상가동 103호</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/35168713/home</t>
+          <t>https://m.place.naver.com/restaurant/1599376883/home</t>
         </is>
       </c>
     </row>
@@ -4957,22 +4949,22 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>1714274415</t>
+          <t>1377431962</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>하삼동커피 하당점</t>
+          <t>카페 디망쉬</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>전남 목포시 백년대로 340 하삼동커피</t>
+          <t>전남 목포시 유동로42번길 5 카페 디망쉬</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1714274415/home</t>
+          <t>https://m.place.naver.com/restaurant/1377431962/home</t>
         </is>
       </c>
     </row>
@@ -4982,22 +4974,22 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>305286440</t>
+          <t>1261422106</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>이디야커피 목포부영점</t>
+          <t>샐러드메이트</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>전남 목포시 옥암로 42</t>
+          <t>전남 목포시 양을로 42 상가동 101호</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/305286440/home</t>
+          <t>https://m.place.naver.com/restaurant/1261422106/home</t>
         </is>
       </c>
     </row>
@@ -5007,22 +4999,22 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>1490998101</t>
+          <t>1820837283</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>당거</t>
+          <t>또봄카페</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>전남 목포시 영산로 54</t>
+          <t>전남 목포시 백년대로323번길 7 1층 또봄카페</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1490998101/home</t>
+          <t>https://m.place.naver.com/restaurant/1820837283/home</t>
         </is>
       </c>
     </row>
@@ -5032,22 +5024,22 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>35234794</t>
+          <t>12898676</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>설빙 목포하당점</t>
+          <t>배스킨라빈스 목포하당점</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>전남 목포시 미항로 133</t>
+          <t>전남 목포시 비파로43번길 31-1 (상동) 1층</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/35234794/home</t>
+          <t>https://m.place.naver.com/restaurant/12898676/home</t>
         </is>
       </c>
     </row>
@@ -5057,22 +5049,22 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>1193890647</t>
+          <t>1275994797</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>동주</t>
+          <t>카페유달</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>전남 목포시 석현로 28 140호 4번출구와5번출구사이</t>
+          <t>전남 목포시 북교길 6</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1193890647/home</t>
+          <t>https://m.place.naver.com/restaurant/1275994797/home</t>
         </is>
       </c>
     </row>
@@ -5082,22 +5074,22 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>1039127666</t>
+          <t>1712765856</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>옛날막걸리술빵</t>
+          <t>빽다방 옥암점</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>전남 목포시 삼학로35번길 24 목포 막걸리찐빵</t>
+          <t>전남 목포시 당가두로 18</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1039127666/home</t>
+          <t>https://m.place.naver.com/restaurant/1712765856/home</t>
         </is>
       </c>
     </row>
@@ -5107,22 +5099,22 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>1231483558</t>
+          <t>32805414</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>컴포즈커피 목포하당점</t>
+          <t>드리밍</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>전남 목포시 비파로 64</t>
+          <t>전남 목포시 삼향천로 90-1</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1231483558/home</t>
+          <t>https://m.place.naver.com/restaurant/32805414/home</t>
         </is>
       </c>
     </row>
@@ -5132,22 +5124,22 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>1113464479</t>
+          <t>1189831237</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>레이디벅스</t>
+          <t>하이오커피 목포하당점</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>전남 목포시 남악2로9번길 3-6</t>
+          <t>전남 목포시 비파로 57</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1113464479/home</t>
+          <t>https://m.place.naver.com/restaurant/1189831237/home</t>
         </is>
       </c>
     </row>
@@ -5157,22 +5149,22 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>1793167063</t>
+          <t>1598322972</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>허니무화</t>
+          <t>공차목포장미거리점</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>전남 목포시 영산로75번길 1-2 무화과빵</t>
+          <t>전남 목포시 비파로51번길 31-1</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1793167063/home</t>
+          <t>https://m.place.naver.com/restaurant/1598322972/home</t>
         </is>
       </c>
     </row>
@@ -5182,22 +5174,22 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>32805414</t>
+          <t>1418849316</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>드리밍</t>
+          <t>카페살라토</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>전남 목포시 삼향천로 90-1</t>
+          <t>전남 목포시 호남로64번길 23</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/32805414/home</t>
+          <t>https://m.place.naver.com/restaurant/1418849316/home</t>
         </is>
       </c>
     </row>
@@ -5207,22 +5199,22 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>1925792791</t>
+          <t>1594919311</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>쿠잉제과</t>
+          <t>빽다방 목포장미의거리점</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>전남 목포시 옥암로96번길 1 3동 쿠잉제과</t>
+          <t>전남 목포시 비파로51번길 31</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1925792791/home</t>
+          <t>https://m.place.naver.com/restaurant/1594919311/home</t>
         </is>
       </c>
     </row>
@@ -5232,22 +5224,22 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>1261422106</t>
+          <t>1924932196</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>샐러드메이트</t>
+          <t>그루브</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>전남 목포시 양을로 42 상가동 101호</t>
+          <t>전남 목포시 원산로59번길 34 1층</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1261422106/home</t>
+          <t>https://m.place.naver.com/restaurant/1924932196/home</t>
         </is>
       </c>
     </row>
@@ -5257,22 +5249,22 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>1474571905</t>
+          <t>846262023</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>스텔라</t>
+          <t>테바</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>전남 목포시 유동로36번길 22-8 . 1,2층(중동1가)</t>
+          <t>전남 목포시 평화로 42 테바 카페</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1474571905/home</t>
+          <t>https://m.place.naver.com/restaurant/846262023/home</t>
         </is>
       </c>
     </row>
@@ -5282,22 +5274,22 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>1786346270</t>
+          <t>1474571905</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>꾸지뽕 왕꽈배기</t>
+          <t>스텔라</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>전남 목포시 남해로63번길 24</t>
+          <t>전남 목포시 유동로36번길 22-8 . 1,2층(중동1가)</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1786346270/home</t>
+          <t>https://m.place.naver.com/restaurant/1474571905/home</t>
         </is>
       </c>
     </row>
@@ -5307,22 +5299,22 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>1573483059</t>
+          <t>1510493668</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>더왈츠</t>
+          <t>리게인스터디카페 목포북항점</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>전남 목포시 하당로 36</t>
+          <t>전남 목포시 청호로 188</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1573483059/home</t>
+          <t>https://m.place.naver.com/restaurant/1510493668/home</t>
         </is>
       </c>
     </row>
@@ -5332,22 +5324,22 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>809435540</t>
+          <t>1113464479</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>차휴</t>
+          <t>레이디벅스</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>전남 목포시 산정로238번길 6</t>
+          <t>전남 목포시 남악2로9번길 3-6</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/809435540/home</t>
+          <t>https://m.place.naver.com/restaurant/1113464479/home</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5349,22 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>1429698648</t>
+          <t>1038472632</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>프롬서산카페</t>
+          <t>굿스고로케앤꽈배기 목포점</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>전남 목포시 보리마당로22번길 13</t>
+          <t>전남 목포시 삼향천로 20-1 굿스고로케앤꽈배기</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1429698648/home</t>
+          <t>https://m.place.naver.com/restaurant/1038472632/home</t>
         </is>
       </c>
     </row>
@@ -5382,22 +5374,22 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>1324709518</t>
+          <t>305286440</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>당과담</t>
+          <t>이디야커피 목포부영점</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>전남 목포시 백년대로307번길 9 당과담</t>
+          <t>전남 목포시 옥암로 42</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1324709518/home</t>
+          <t>https://m.place.naver.com/restaurant/305286440/home</t>
         </is>
       </c>
     </row>
@@ -5407,22 +5399,22 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>1882698561</t>
+          <t>36656046</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>오리진 커피 로스터즈</t>
+          <t>배스킨라빈스 목포북항</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>전남 목포시 미항로 75 ORIGIN</t>
+          <t>전남 목포시 청호로 192 1층</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1882698561/home</t>
+          <t>https://m.place.naver.com/restaurant/36656046/home</t>
         </is>
       </c>
     </row>
@@ -5432,22 +5424,22 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>1440757048</t>
+          <t>36867617</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>플래너스터디카페</t>
+          <t>크리스피크림도넛 목포상동점</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>전남 목포시 원산중앙로 28 3층</t>
+          <t>전남 목포시 백년대로 340</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1440757048/home</t>
+          <t>https://m.place.naver.com/restaurant/36867617/home</t>
         </is>
       </c>
     </row>
@@ -5457,22 +5449,22 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>1009784971</t>
+          <t>1571264335</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>하루호두</t>
+          <t>베르시</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>전남 목포시 원산로145번길 8 1층</t>
+          <t>전남 목포시 연산백련로7번길 6 1층 베르시</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1009784971/home</t>
+          <t>https://m.place.naver.com/restaurant/1571264335/home</t>
         </is>
       </c>
     </row>
@@ -5482,22 +5474,22 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>1820837283</t>
+          <t>1440757048</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>또봄카페</t>
+          <t>플래너스터디카페</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>전남 목포시 백년대로323번길 7 1층 또봄카페</t>
+          <t>전남 목포시 원산중앙로 28 3층</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1820837283/home</t>
+          <t>https://m.place.naver.com/restaurant/1440757048/home</t>
         </is>
       </c>
     </row>
@@ -5507,22 +5499,22 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>1806190204</t>
+          <t>1378269987</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>투썸플레이스 목포석현점</t>
+          <t>무유</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>전남 목포시 옥암로 190 1층 101호 102호</t>
+          <t>전남 목포시 장미로 5</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1806190204/home</t>
+          <t>https://m.place.naver.com/restaurant/1378269987/home</t>
         </is>
       </c>
     </row>
@@ -5532,22 +5524,22 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>13401866</t>
+          <t>1806190204</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>코코호도 하당점</t>
+          <t>투썸플레이스 목포석현점</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>전남 목포시 신흥로45번길 2</t>
+          <t>전남 목포시 옥암로 190 1층 101호 102호</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/13401866/home</t>
+          <t>https://m.place.naver.com/restaurant/1806190204/home</t>
         </is>
       </c>
     </row>
@@ -5557,22 +5549,22 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>1599376883</t>
+          <t>1850417071</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>포니케이크</t>
+          <t>메가MGC커피 목포상동점</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>전남 목포시 신흥로83번길 20 상가동 103호</t>
+          <t>전남 목포시 백년대로 324</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1599376883/home</t>
+          <t>https://m.place.naver.com/restaurant/1850417071/home</t>
         </is>
       </c>
     </row>
@@ -5582,22 +5574,22 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>1481926172</t>
+          <t>1843915719</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>골목커피</t>
+          <t>투엔포카페</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>전남 목포시 원산로 38 차오름 1층 골목커피</t>
+          <t>전남 목포시 대양산단로125번길 179-12 2동 104호</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1481926172/home</t>
+          <t>https://m.place.naver.com/restaurant/1843915719/home</t>
         </is>
       </c>
     </row>
@@ -5607,22 +5599,22 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>1603055730</t>
+          <t>1680916974</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>리본스터디카페 하당점</t>
+          <t>공감</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>전남 목포시 비파로43번길 7 2층, 리본스터디카페 하당점</t>
+          <t>전남 목포시 마인계터로 44 카페 공감</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1603055730/home</t>
+          <t>https://m.place.naver.com/restaurant/1680916974/home</t>
         </is>
       </c>
     </row>
@@ -5632,22 +5624,22 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>1418849316</t>
+          <t>1175093074</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>카페살라토</t>
+          <t>배스킨라빈스 목포상동점</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>전남 목포시 호남로64번길 23</t>
+          <t>전남 목포시 하당로 264</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1418849316/home</t>
+          <t>https://m.place.naver.com/restaurant/1175093074/home</t>
         </is>
       </c>
     </row>
@@ -5657,22 +5649,22 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>1038472632</t>
+          <t>13401866</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>굿스고로케앤꽈배기 목포점</t>
+          <t>코코호도 하당점</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>전남 목포시 삼향천로 20-1 굿스고로케앤꽈배기</t>
+          <t>전남 목포시 신흥로45번길 2</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1038472632/home</t>
+          <t>https://m.place.naver.com/restaurant/13401866/home</t>
         </is>
       </c>
     </row>
@@ -5682,22 +5674,22 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>1712765856</t>
+          <t>1481926172</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>빽다방 옥암점</t>
+          <t>골목커피</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>전남 목포시 당가두로 18</t>
+          <t>전남 목포시 원산로 38 차오름 1층 골목커피</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1712765856/home</t>
+          <t>https://m.place.naver.com/restaurant/1481926172/home</t>
         </is>
       </c>
     </row>
@@ -5707,22 +5699,22 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>1748426375</t>
+          <t>36947987</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>빽다방 목포용해점</t>
+          <t>공차 목포평화광장점</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>전남 목포시 연산백련로 13 1층</t>
+          <t>전남 목포시 평화로73번길 27</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1748426375/home</t>
+          <t>https://m.place.naver.com/restaurant/36947987/home</t>
         </is>
       </c>
     </row>
@@ -5732,22 +5724,22 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>1692970931</t>
+          <t>1121858352</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>트리플에이커피 남악옥암점</t>
+          <t>김은주화과자점</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>전남 목포시 남악2로 54 남악프라자1 제 101호 트리플에이커피</t>
+          <t>전남 목포시 번화로 60 1층</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1692970931/home</t>
+          <t>https://m.place.naver.com/restaurant/1121858352/home</t>
         </is>
       </c>
     </row>
@@ -5757,22 +5749,22 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>846262023</t>
+          <t>38483999</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>테바</t>
+          <t>투썸플레이스 목포북항점</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>전남 목포시 평화로 42 테바 카페</t>
+          <t>전남 목포시 원산중앙로 7</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/846262023/home</t>
+          <t>https://m.place.naver.com/restaurant/38483999/home</t>
         </is>
       </c>
     </row>
@@ -5807,22 +5799,22 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>1858760649</t>
+          <t>1000435751</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>이츠루카</t>
+          <t>테라스하우스</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>전남 목포시 수문로 32 트윈스타 상가 1층 104호</t>
+          <t>전남 목포시 영산로75번길 21 3층, 4층, 5층</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1858760649/home</t>
+          <t>https://m.place.naver.com/restaurant/1000435751/home</t>
         </is>
       </c>
     </row>
@@ -5832,22 +5824,22 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>36656046</t>
+          <t>1351812835</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>배스킨라빈스 목포북항</t>
+          <t>컴포즈커피 목포상동점</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>전남 목포시 청호로 192 1층</t>
+          <t>전남 목포시 옥암로 114 1층 컴포즈커피 목포상동점</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/36656046/home</t>
+          <t>https://m.place.naver.com/restaurant/1351812835/home</t>
         </is>
       </c>
     </row>
@@ -5857,22 +5849,22 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>33811409</t>
+          <t>1277913877</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>할리스 목포평화점</t>
+          <t>유다원</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>전남 목포시 미항로 129</t>
+          <t>전남 목포시 양을로143번길 3-1 유다원</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/33811409/home</t>
+          <t>https://m.place.naver.com/restaurant/1277913877/home</t>
         </is>
       </c>
     </row>
@@ -5882,22 +5874,22 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>1351812835</t>
+          <t>1341823230</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>컴포즈커피 목포상동점</t>
+          <t>스텝업</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>전남 목포시 옥암로 114 1층 컴포즈커피 목포상동점</t>
+          <t>전남 목포시 복산길6번길 35</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1351812835/home</t>
+          <t>https://m.place.naver.com/restaurant/1341823230/home</t>
         </is>
       </c>
     </row>
@@ -5907,22 +5899,22 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>12898676</t>
+          <t>1528812680</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>배스킨라빈스 목포하당점</t>
+          <t>카페포셀린</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>전남 목포시 비파로43번길 31-1 (상동) 1층</t>
+          <t>전남 목포시 영산로75번길 3-1 카페포셀린</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/12898676/home</t>
+          <t>https://m.place.naver.com/restaurant/1528812680/home</t>
         </is>
       </c>
     </row>
@@ -5932,22 +5924,22 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>1924932196</t>
+          <t>1934402037</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>그루브</t>
+          <t>컴포즈커피 목포평화광장점</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>전남 목포시 원산로59번길 34 1층</t>
+          <t>전남 목포시 원형로 20 1층</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1924932196/home</t>
+          <t>https://m.place.naver.com/restaurant/1934402037/home</t>
         </is>
       </c>
     </row>
@@ -5957,22 +5949,22 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>1148692618</t>
+          <t>1122136464</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>라르고하</t>
+          <t>흰수염고래</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>전남 목포시 허사로81번길 37 1,2층</t>
+          <t>전남 목포시 삼학로 329</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1148692618/home</t>
+          <t>https://m.place.naver.com/restaurant/1122136464/home</t>
         </is>
       </c>
     </row>
@@ -5982,22 +5974,22 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>1229787034</t>
+          <t>1398433486</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>카페비비알오</t>
+          <t>큰별스터디카페</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>전남 목포시 수문로 32 111호</t>
+          <t>전남 목포시 청호로219번길 30 북항N노을스페이스 202호</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1229787034/home</t>
+          <t>https://m.place.naver.com/restaurant/1398433486/home</t>
         </is>
       </c>
     </row>
@@ -6007,22 +5999,22 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>16784983</t>
+          <t>1946150954</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>파리바게뜨 목포하당점</t>
+          <t>메가MGC커피 목포하당점</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>전남 목포시 신흥로 16 (상동 983-6) 1층</t>
+          <t>전남 목포시 비파로43번길 30 1층</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/16784983/home</t>
+          <t>https://m.place.naver.com/restaurant/1946150954/home</t>
         </is>
       </c>
     </row>
@@ -6032,22 +6024,22 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>1000435751</t>
+          <t>1178531821</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>테라스하우스</t>
+          <t>매머드익스프레스 목포삼학점</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>전남 목포시 영산로75번길 21 3층, 4층, 5층</t>
+          <t>전남 목포시 용당로 69 1층</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1000435751/home</t>
+          <t>https://m.place.naver.com/restaurant/1178531821/home</t>
         </is>
       </c>
     </row>
@@ -6057,22 +6049,22 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>1288829083</t>
+          <t>1167762993</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>퐁당파인</t>
+          <t>태연꽃채움 앙금플라워케이크</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>전남 목포시 원산로 67 107호</t>
+          <t>전남 목포시 마파지로 5 1층</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1288829083/home</t>
+          <t>https://m.place.naver.com/restaurant/1167762993/home</t>
         </is>
       </c>
     </row>
@@ -6082,22 +6074,22 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>1341823230</t>
+          <t>1004947667</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>스텝업</t>
+          <t>비건베이커리 쿠비쿠비</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>전남 목포시 복산길6번길 35</t>
+          <t>전남 목포시 하당로 100 1층</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1341823230/home</t>
+          <t>https://m.place.naver.com/restaurant/1004947667/home</t>
         </is>
       </c>
     </row>
@@ -6107,22 +6099,22 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>1946150954</t>
+          <t>1847358717</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>메가MGC커피 목포하당점</t>
+          <t>원메이드</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>전남 목포시 비파로43번길 30 1층</t>
+          <t>전남 목포시 영산로59번길 32-1 1층 원메이드</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1946150954/home</t>
+          <t>https://m.place.naver.com/restaurant/1847358717/home</t>
         </is>
       </c>
     </row>
@@ -6132,22 +6124,22 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>1746529306</t>
+          <t>1748426375</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>와플칸 목포점</t>
+          <t>빽다방 목포용해점</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>전남 목포시 장미로 50 1층 와플칸목포</t>
+          <t>전남 목포시 연산백련로 13 1층</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1746529306/home</t>
+          <t>https://m.place.naver.com/restaurant/1748426375/home</t>
         </is>
       </c>
     </row>
@@ -6157,22 +6149,22 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>1565202151</t>
+          <t>1148692618</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>이디야커피 목포대성점</t>
+          <t>라르고하</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>전남 목포시 양을로 59 1층</t>
+          <t>전남 목포시 허사로81번길 37 1,2층</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1565202151/home</t>
+          <t>https://m.place.naver.com/restaurant/1148692618/home</t>
         </is>
       </c>
     </row>
@@ -6182,22 +6174,22 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>1487048077</t>
+          <t>35234794</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>드로잉카페 화가의집</t>
+          <t>설빙 목포하당점</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>전남 목포시 차범석길23번길 3-1</t>
+          <t>전남 목포시 미항로 133</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1487048077/home</t>
+          <t>https://m.place.naver.com/restaurant/35234794/home</t>
         </is>
       </c>
     </row>
@@ -6207,22 +6199,22 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>1552324312</t>
+          <t>33811409</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>요커 목포하당점</t>
+          <t>할리스 목포평화점</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>전남 목포시 백년대로 304 104호</t>
+          <t>전남 목포시 미항로 129</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1552324312/home</t>
+          <t>https://m.place.naver.com/restaurant/33811409/home</t>
         </is>
       </c>
     </row>
@@ -6232,22 +6224,22 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>1004947667</t>
+          <t>1231483558</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>비건베이커리 쿠비쿠비</t>
+          <t>컴포즈커피 목포하당점</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>전남 목포시 하당로 100 1층</t>
+          <t>전남 목포시 비파로 64</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1004947667/home</t>
+          <t>https://m.place.naver.com/restaurant/1231483558/home</t>
         </is>
       </c>
     </row>
@@ -6257,22 +6249,22 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>1847358717</t>
+          <t>1714274415</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>원메이드</t>
+          <t>하삼동커피 하당점</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>전남 목포시 영산로59번길 32-1 1층 원메이드</t>
+          <t>전남 목포시 백년대로 340 하삼동커피</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1847358717/home</t>
+          <t>https://m.place.naver.com/restaurant/1714274415/home</t>
         </is>
       </c>
     </row>
@@ -6282,22 +6274,22 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>1100737072</t>
+          <t>1324396400</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>메가MGC커피 목포북항점</t>
+          <t>메가MGC커피 목포상동중앙점</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>전남 목포시 청호로 177</t>
+          <t>전남 목포시 텃골로13번길 76 1층</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1100737072/home</t>
+          <t>https://m.place.naver.com/restaurant/1324396400/home</t>
         </is>
       </c>
     </row>
@@ -6307,22 +6299,22 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>1121858352</t>
+          <t>1487048077</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>김은주화과자점</t>
+          <t>드로잉카페 화가의집</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>전남 목포시 번화로 60 1층</t>
+          <t>전남 목포시 차범석길23번길 3-1</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1121858352/home</t>
+          <t>https://m.place.naver.com/restaurant/1487048077/home</t>
         </is>
       </c>
     </row>
@@ -6332,22 +6324,22 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>1398433486</t>
+          <t>1552324312</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>큰별스터디카페</t>
+          <t>요커 목포하당점</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>전남 목포시 청호로219번길 30 북항N노을스페이스 202호</t>
+          <t>전남 목포시 백년대로 304 104호</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1398433486/home</t>
+          <t>https://m.place.naver.com/restaurant/1552324312/home</t>
         </is>
       </c>
     </row>
@@ -6357,22 +6349,22 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>1843915719</t>
+          <t>1039127666</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>투엔포카페</t>
+          <t>옛날막걸리술빵</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>전남 목포시 대양산단로125번길 179-12 2동 104호</t>
+          <t>전남 목포시 삼학로35번길 24 목포 막걸리찐빵</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1843915719/home</t>
+          <t>https://m.place.naver.com/restaurant/1039127666/home</t>
         </is>
       </c>
     </row>
@@ -6382,22 +6374,22 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>1007498849</t>
+          <t>1142312566</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>카페몬드리안</t>
+          <t>메리보아</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>전남 목포시 평화로 86 1층 카페몬드리안</t>
+          <t>전남 목포시 용두로10번길 2 1층</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1007498849/home</t>
+          <t>https://m.place.naver.com/restaurant/1142312566/home</t>
         </is>
       </c>
     </row>
@@ -6432,22 +6424,22 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>1175093074</t>
+          <t>1858760649</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>배스킨라빈스 목포상동점</t>
+          <t>이츠루카</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>전남 목포시 하당로 264</t>
+          <t>전남 목포시 수문로 32 트윈스타 상가 1층 104호</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1175093074/home</t>
+          <t>https://m.place.naver.com/restaurant/1858760649/home</t>
         </is>
       </c>
     </row>
@@ -6457,22 +6449,22 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>1142233621</t>
+          <t>1980473958</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>커피볶는칼디</t>
+          <t>오쇼잉</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>전남 목포시 원산중앙로 10-3</t>
+          <t>전남 목포시 영산로59번길 30 목포극장 1층 오쇼잉</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1142233621/home</t>
+          <t>https://m.place.naver.com/restaurant/1980473958/home</t>
         </is>
       </c>
     </row>
@@ -6482,22 +6474,22 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>36256113</t>
+          <t>1198413937</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>엔제리너스커피 목포법원프라자점</t>
+          <t>카페야자수</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>전남 목포시 후광대로 110</t>
+          <t>전남 목포시 양을로242번길 5-2 1층 카페야자수</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/36256113/home</t>
+          <t>https://m.place.naver.com/restaurant/1198413937/home</t>
         </is>
       </c>
     </row>
@@ -6507,22 +6499,22 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>1324396400</t>
+          <t>1817633216</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>메가MGC커피 목포상동중앙점</t>
+          <t>달담케이크</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>전남 목포시 텃골로13번길 76 1층</t>
+          <t>전남 목포시 청호로 177 104호 달담케이크</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1324396400/home</t>
+          <t>https://m.place.naver.com/restaurant/1817633216/home</t>
         </is>
       </c>
     </row>
@@ -6532,22 +6524,22 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>1167762993</t>
+          <t>1261548678</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>태연꽃채움 앙금플라워케이크</t>
+          <t>커피앤스토리</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>전남 목포시 마파지로 5 1층</t>
+          <t>전남 목포시 미항로 77 커피앤스토리</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1167762993/home</t>
+          <t>https://m.place.naver.com/restaurant/1261548678/home</t>
         </is>
       </c>
     </row>
@@ -6557,22 +6549,22 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>1075899448</t>
+          <t>1810973478</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>퐁치커피익스프레스 목포용당점</t>
+          <t>어반트리스터디카페 목포제3센터</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>전남 목포시 양을로 224 상가2동 113호</t>
+          <t>전남 목포시 옥암로 173 파스쿠찌2층</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1075899448/home</t>
+          <t>https://m.place.naver.com/restaurant/1810973478/home</t>
         </is>
       </c>
     </row>
@@ -6582,22 +6574,22 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>1261548678</t>
+          <t>1009784971</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>커피앤스토리</t>
+          <t>하루호두</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>전남 목포시 미항로 77 커피앤스토리</t>
+          <t>전남 목포시 원산로145번길 8 1층</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1261548678/home</t>
+          <t>https://m.place.naver.com/restaurant/1009784971/home</t>
         </is>
       </c>
     </row>
@@ -6607,22 +6599,22 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>1862984748</t>
+          <t>1925792791</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>더벤티 목포하당점</t>
+          <t>쿠잉제과</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>전남 목포시 부흥로 83 1층</t>
+          <t>전남 목포시 옥암로96번길 1 3동 쿠잉제과</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1862984748/home</t>
+          <t>https://m.place.naver.com/restaurant/1925792791/home</t>
         </is>
       </c>
     </row>
@@ -6632,22 +6624,22 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>1286223953</t>
+          <t>1270934515</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>마노커피</t>
+          <t>다좌원</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>전남 목포시 영산로40번길 20 1층</t>
+          <t>전남 목포시 번화로 51 다좌원</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1286223953/home</t>
+          <t>https://m.place.naver.com/restaurant/1270934515/home</t>
         </is>
       </c>
     </row>
@@ -6657,22 +6649,22 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>1206526818</t>
+          <t>16784983</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>투티프루티</t>
+          <t>파리바게뜨 목포하당점</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>전남 목포시 원형서로 48-1 1층 투티프루티</t>
+          <t>전남 목포시 신흥로 16 (상동 983-6) 1층</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1206526818/home</t>
+          <t>https://m.place.naver.com/restaurant/16784983/home</t>
         </is>
       </c>
     </row>
@@ -6682,22 +6674,22 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>1122136464</t>
+          <t>33021936</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>흰수염고래</t>
+          <t>탐앤탐스 목포상동점</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>전남 목포시 삼학로 329</t>
+          <t>전남 목포시 원형동로 10</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1122136464/home</t>
+          <t>https://m.place.naver.com/restaurant/33021936/home</t>
         </is>
       </c>
     </row>
@@ -6707,22 +6699,22 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>1235549011</t>
+          <t>1142233621</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>레드블랙커피</t>
+          <t>커피볶는칼디</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>전남 목포시 미항로 195 레드블랙 커피</t>
+          <t>전남 목포시 원산중앙로 10-3</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1235549011/home</t>
+          <t>https://m.place.naver.com/restaurant/1142233621/home</t>
         </is>
       </c>
     </row>
@@ -6732,22 +6724,22 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>1350326055</t>
+          <t>1371971386</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>만호</t>
+          <t>봉명동내커피 목포1호점</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>전남 목포시 해안로237번길 19-4</t>
+          <t>전남 목포시 옥암로 95 1층 2111호</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1350326055/home</t>
+          <t>https://m.place.naver.com/restaurant/1371971386/home</t>
         </is>
       </c>
     </row>
@@ -6757,22 +6749,22 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>1170391698</t>
+          <t>1229787034</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>평화로오백빵</t>
+          <t>카페비비알오</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>전남 목포시 평화로 3 . 1층 평화로오백빵</t>
+          <t>전남 목포시 수문로 32 111호</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1170391698/home</t>
+          <t>https://m.place.naver.com/restaurant/1229787034/home</t>
         </is>
       </c>
     </row>
@@ -6782,22 +6774,22 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>38483999</t>
+          <t>1075899448</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>투썸플레이스 목포북항점</t>
+          <t>퐁치커피익스프레스 목포용당점</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>전남 목포시 원산중앙로 7</t>
+          <t>전남 목포시 양을로 224 상가2동 113호</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/38483999/home</t>
+          <t>https://m.place.naver.com/restaurant/1075899448/home</t>
         </is>
       </c>
     </row>
@@ -6807,22 +6799,22 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>1680916974</t>
+          <t>1786346270</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>공감</t>
+          <t>꾸지뽕 왕꽈배기</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>전남 목포시 마인계터로 44 카페 공감</t>
+          <t>전남 목포시 남해로63번길 24</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1680916974/home</t>
+          <t>https://m.place.naver.com/restaurant/1786346270/home</t>
         </is>
       </c>
     </row>
@@ -6832,22 +6824,22 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>1261390200</t>
+          <t>1288829083</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>우주라이크커피 목포이로점</t>
+          <t>퐁당파인</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>전남 목포시 이로로 3 1층</t>
+          <t>전남 목포시 원산로 67 107호</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1261390200/home</t>
+          <t>https://m.place.naver.com/restaurant/1288829083/home</t>
         </is>
       </c>
     </row>
@@ -6857,22 +6849,22 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>1478451251</t>
+          <t>1007498849</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>꽃마리</t>
+          <t>카페몬드리안</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>전남 목포시 후광대로105번길 17-1</t>
+          <t>전남 목포시 평화로 86 1층 카페몬드리안</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1478451251/home</t>
+          <t>https://m.place.naver.com/restaurant/1007498849/home</t>
         </is>
       </c>
     </row>
@@ -6882,22 +6874,22 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>1963314021</t>
+          <t>1984290705</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>커피베이 평화광장점</t>
+          <t>메가MGC커피 목포연산점</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>전남 목포시 평화로 41</t>
+          <t>전남 목포시 원산중앙로 107 연산주공아파트상가동 106호</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1963314021/home</t>
+          <t>https://m.place.naver.com/restaurant/1984290705/home</t>
         </is>
       </c>
     </row>
@@ -6907,22 +6899,22 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>1142312566</t>
+          <t>1430547363</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>메리보아</t>
+          <t>웜케이크</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>전남 목포시 용두로10번길 2 1층</t>
+          <t>전남 목포시 부흥로 69 104동 101호</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1142312566/home</t>
+          <t>https://m.place.naver.com/restaurant/1430547363/home</t>
         </is>
       </c>
     </row>
@@ -6932,22 +6924,22 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>1751773176</t>
+          <t>1324709518</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>공차 목포북항점</t>
+          <t>당과담</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>전남 목포시 청호로 180</t>
+          <t>전남 목포시 백년대로307번길 9 당과담</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1751773176/home</t>
+          <t>https://m.place.naver.com/restaurant/1324709518/home</t>
         </is>
       </c>
     </row>
@@ -6957,22 +6949,22 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>1528812680</t>
+          <t>1115621359</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>카페포셀린</t>
+          <t>빽다방 목포역점</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>전남 목포시 영산로75번길 3-1 카페포셀린</t>
+          <t>전남 목포시 수문로 9 1층</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1528812680/home</t>
+          <t>https://m.place.naver.com/restaurant/1115621359/home</t>
         </is>
       </c>
     </row>
@@ -6982,22 +6974,22 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>564850177</t>
+          <t>31492636</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>비마이갸또</t>
+          <t>까페치노</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>전남 목포시 수문로 80</t>
+          <t>전남 목포시 유달로 1 까페치노</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/564850177/home</t>
+          <t>https://m.place.naver.com/restaurant/31492636/home</t>
         </is>
       </c>
     </row>
@@ -7007,22 +6999,22 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>1540883274</t>
+          <t>1293693992</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>매머드익스프레스 목포신세계병원점</t>
+          <t>메가MGC커피 목포포미점</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>전남 목포시 백년대로 258 1층</t>
+          <t>전남 목포시 용해지구로 11</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1540883274/home</t>
+          <t>https://m.place.naver.com/restaurant/1293693992/home</t>
         </is>
       </c>
     </row>
@@ -7032,22 +7024,22 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>1856309798</t>
+          <t>1206526818</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>후르츠볼</t>
+          <t>투티프루티</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>전남 목포시 호남로64번길 29-2 1층</t>
+          <t>전남 목포시 원형서로 48-1 1층 투티프루티</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1856309798/home</t>
+          <t>https://m.place.naver.com/restaurant/1206526818/home</t>
         </is>
       </c>
     </row>
@@ -7057,22 +7049,22 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>944293868</t>
+          <t>1295057643</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>오가다 목포포미연산점</t>
+          <t>오지파머스커피</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>전남 목포시 연산백련로1번길 8-4 샤인빌 1층 오가다 목포포미연산점</t>
+          <t>전남 목포시 번영로 172 대경천사캐슬 1층 101호</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/944293868/home</t>
+          <t>https://m.place.naver.com/restaurant/1295057643/home</t>
         </is>
       </c>
     </row>
@@ -7082,22 +7074,22 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>1966493975</t>
+          <t>1100737072</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>스푼스</t>
+          <t>메가MGC커피 목포북항점</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>전남 목포시 영산로75번길 13-1 스푼스</t>
+          <t>전남 목포시 청호로 177</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1966493975/home</t>
+          <t>https://m.place.naver.com/restaurant/1100737072/home</t>
         </is>
       </c>
     </row>
@@ -7107,22 +7099,22 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>16838524</t>
+          <t>1966493975</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>백제당제과점</t>
+          <t>스푼스</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>전남 목포시 산정로 174</t>
+          <t>전남 목포시 영산로75번길 13-1 스푼스</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/16838524/home</t>
+          <t>https://m.place.naver.com/restaurant/1966493975/home</t>
         </is>
       </c>
     </row>
@@ -7132,22 +7124,22 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>1980473958</t>
+          <t>16734062</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>오쇼잉</t>
+          <t>파리바게뜨 목포북항점</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>전남 목포시 영산로59번길 30 목포극장 1층 오쇼잉</t>
+          <t>전남 목포시 청호로 192-1 .</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1980473958/home</t>
+          <t>https://m.place.naver.com/restaurant/16734062/home</t>
         </is>
       </c>
     </row>
@@ -7157,22 +7149,22 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>36827596</t>
+          <t>1981629809</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>파스쿠찌 목포용해점</t>
+          <t>오프그레이커피</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>전남 목포시 용해지구로 1</t>
+          <t>전남 목포시 상리로15번길 1-2 1층 오프그레이커피</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/36827596/home</t>
+          <t>https://m.place.naver.com/restaurant/1981629809/home</t>
         </is>
       </c>
     </row>
@@ -7182,22 +7174,22 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>1042646265</t>
+          <t>1762533095</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>디저트39 목포산정점</t>
+          <t>메가MGC커피 목포미항점</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>전남 목포시 청호로 176 쥬빌리 메디칼센터 1층</t>
+          <t>전남 목포시 미항로 137-1 1층</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1042646265/home</t>
+          <t>https://m.place.naver.com/restaurant/1762533095/home</t>
         </is>
       </c>
     </row>
@@ -7207,22 +7199,22 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>37039388</t>
+          <t>1178003742</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>카페 밀물</t>
+          <t>와플랑 목포하당점</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>전남 목포시 영산로 64 1층 카페 밀물</t>
+          <t>전남 목포시 평화로 44 2층</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/37039388/home</t>
+          <t>https://m.place.naver.com/restaurant/1178003742/home</t>
         </is>
       </c>
     </row>
@@ -7232,22 +7224,22 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>1510493668</t>
+          <t>1097320596</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>리게인스터디카페 목포북항점</t>
+          <t>해피니스</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>전남 목포시 청호로 188</t>
+          <t>전남 목포시 백년대로 288 1층</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1510493668/home</t>
+          <t>https://m.place.naver.com/restaurant/1097320596/home</t>
         </is>
       </c>
     </row>
@@ -7257,22 +7249,22 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>33937451</t>
+          <t>1616277675</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>카페푸르미르</t>
+          <t>큰별스터디카페 포미점</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>전남 목포시 미항로 165 카페 푸르미르</t>
+          <t>전남 목포시 포미로 8 2층 큰별스터디카페</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/33937451/home</t>
+          <t>https://m.place.naver.com/restaurant/1616277675/home</t>
         </is>
       </c>
     </row>
@@ -7282,22 +7274,22 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>37775717</t>
+          <t>1062402751</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>요거프레소 평화광장점</t>
+          <t>셀렉토커피 목포하당점</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>전남 목포시 평화로107번길 27 요거프레소 평화광장점</t>
+          <t>전남 목포시 옥암로 16</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/37775717/home</t>
+          <t>https://m.place.naver.com/restaurant/1062402751/home</t>
         </is>
       </c>
     </row>
@@ -7307,22 +7299,22 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>1721249190</t>
+          <t>1565202151</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>문리버</t>
+          <t>이디야커피 목포대성점</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>전남 목포시 만호로 21-2 1층</t>
+          <t>전남 목포시 양을로 59 1층</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1721249190/home</t>
+          <t>https://m.place.naver.com/restaurant/1565202151/home</t>
         </is>
       </c>
     </row>
@@ -7332,22 +7324,22 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>1787597186</t>
+          <t>36439550</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>빽다방 목포터미널점</t>
+          <t>던킨 목포기독병원점</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>전남 목포시 영산로 515 1층</t>
+          <t>전남 목포시 백년대로297번길 3 상동</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1787597186/home</t>
+          <t>https://m.place.naver.com/restaurant/36439550/home</t>
         </is>
       </c>
     </row>
@@ -7357,22 +7349,22 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>16734062</t>
+          <t>1963314021</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>파리바게뜨 목포북항점</t>
+          <t>커피베이 평화광장점</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>전남 목포시 청호로 192-1 .</t>
+          <t>전남 목포시 평화로 41</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/16734062/home</t>
+          <t>https://m.place.naver.com/restaurant/1963314021/home</t>
         </is>
       </c>
     </row>
@@ -7382,22 +7374,22 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>1934402037</t>
+          <t>37775717</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>컴포즈커피 목포평화광장점</t>
+          <t>요거프레소 평화광장점</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>전남 목포시 원형로 20 1층</t>
+          <t>전남 목포시 평화로107번길 27 요거프레소 평화광장점</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1934402037/home</t>
+          <t>https://m.place.naver.com/restaurant/37775717/home</t>
         </is>
       </c>
     </row>
@@ -7407,22 +7399,22 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>33021936</t>
+          <t>36465952</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>탐앤탐스 목포상동점</t>
+          <t>모노그램</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>전남 목포시 원형동로 10</t>
+          <t>전남 목포시 용당로266번길 4</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/33021936/home</t>
+          <t>https://m.place.naver.com/restaurant/36465952/home</t>
         </is>
       </c>
     </row>
@@ -7432,22 +7424,22 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>1295057643</t>
+          <t>417666132</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>오지파머스커피</t>
+          <t>이디야커피 목포백련점</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>전남 목포시 번영로 172 대경천사캐슬 1층 101호</t>
+          <t>전남 목포시 연산백련로7번길 2-14</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1295057643/home</t>
+          <t>https://m.place.naver.com/restaurant/417666132/home</t>
         </is>
       </c>
     </row>
@@ -7457,22 +7449,22 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>31492636</t>
+          <t>1201138609</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>까페치노</t>
+          <t>매머드익스프레스 목포하당점</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>전남 목포시 유달로 1 까페치노</t>
+          <t>전남 목포시 비파로 96 1층 상가 113호</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/31492636/home</t>
+          <t>https://m.place.naver.com/restaurant/1201138609/home</t>
         </is>
       </c>
     </row>
@@ -7482,22 +7474,22 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>1817633216</t>
+          <t>1746529306</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>달담케이크</t>
+          <t>와플칸 목포점</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>전남 목포시 청호로 177 104호 달담케이크</t>
+          <t>전남 목포시 장미로 50 1층 와플칸목포</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1817633216/home</t>
+          <t>https://m.place.naver.com/restaurant/1746529306/home</t>
         </is>
       </c>
     </row>
@@ -7507,22 +7499,22 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>1169229875</t>
+          <t>1862984748</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>빽다방 목포북항골든점</t>
+          <t>더벤티 목포하당점</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>전남 목포시 원산중앙로 10 105호</t>
+          <t>전남 목포시 부흥로 83 1층</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1169229875/home</t>
+          <t>https://m.place.naver.com/restaurant/1862984748/home</t>
         </is>
       </c>
     </row>
@@ -7532,22 +7524,22 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>1981629809</t>
+          <t>1261390200</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>오프그레이커피</t>
+          <t>우주라이크커피 목포이로점</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>전남 목포시 상리로15번길 1-2 1층 오프그레이커피</t>
+          <t>전남 목포시 이로로 3 1층</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1981629809/home</t>
+          <t>https://m.place.naver.com/restaurant/1261390200/home</t>
         </is>
       </c>
     </row>
@@ -7557,22 +7549,22 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>1451559187</t>
+          <t>1101016031</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>이화떡케이크</t>
+          <t>하삼동커피 목포북항점</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>전남 목포시 마인계터로39번길 2-1</t>
+          <t>전남 목포시 원산중앙로 10 1층</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1451559187/home</t>
+          <t>https://m.place.naver.com/restaurant/1101016031/home</t>
         </is>
       </c>
     </row>
@@ -7582,22 +7574,22 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>1984290705</t>
+          <t>1130193816</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>메가MGC커피 목포연산점</t>
+          <t>배스킨라빈스 목포용해점</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>전남 목포시 원산중앙로 107 연산주공아파트상가동 106호</t>
+          <t>전남 목포시 용해지구로 3 1층</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1984290705/home</t>
+          <t>https://m.place.naver.com/restaurant/1130193816/home</t>
         </is>
       </c>
     </row>
@@ -7607,22 +7599,22 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>37547087</t>
+          <t>1982194898</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>마시청</t>
+          <t>투썸플레이스 목포백년대로점</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>전남 목포시 북항로 71 마시청</t>
+          <t>전남 목포시 백년대로 319 1층 104호</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/37547087/home</t>
+          <t>https://m.place.naver.com/restaurant/1982194898/home</t>
         </is>
       </c>
     </row>
@@ -7632,22 +7624,22 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>417666132</t>
+          <t>1055825674</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>이디야커피 목포백련점</t>
+          <t>갑순이라이브 7080</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>전남 목포시 연산백련로7번길 2-14</t>
+          <t>전남 목포시 통일대로 42-1 2층</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/417666132/home</t>
+          <t>https://m.place.naver.com/restaurant/1055825674/home</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7649,22 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>36439550</t>
+          <t>1776749644</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>던킨 목포기독병원점</t>
+          <t>하얀풍차 카페</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>전남 목포시 백년대로297번길 3 상동</t>
+          <t>전남 목포시 유달로 126 2층</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/36439550/home</t>
+          <t>https://m.place.naver.com/restaurant/1776749644/home</t>
         </is>
       </c>
     </row>
@@ -7682,22 +7674,22 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>1116659223</t>
+          <t>36827596</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>엘리펀트앤코카롱</t>
+          <t>파스쿠찌 목포용해점</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>전남 목포시 삼향천로91번길 10</t>
+          <t>전남 목포시 용해지구로 1</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1116659223/home</t>
+          <t>https://m.place.naver.com/restaurant/36827596/home</t>
         </is>
       </c>
     </row>
@@ -7707,22 +7699,22 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>1161183986</t>
+          <t>95721666</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>컴포즈커피 목포용당점</t>
+          <t>앨리스커피</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>전남 목포시 동부로 5 1층</t>
+          <t>전남 목포시 유달로 130 앨리스커피</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1161183986/home</t>
+          <t>https://m.place.naver.com/restaurant/95721666/home</t>
         </is>
       </c>
     </row>
@@ -7732,22 +7724,22 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>1218980116</t>
+          <t>1519785628</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>하루일기카페</t>
+          <t>뚜레쥬르 목포석현점</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>전남 목포시 남악1로16번길 22-11 1층</t>
+          <t>전남 목포시 텃골로13번길 79</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1218980116/home</t>
+          <t>https://m.place.naver.com/restaurant/1519785628/home</t>
         </is>
       </c>
     </row>
@@ -7757,22 +7749,22 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>1115621359</t>
+          <t>1787597186</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>빽다방 목포역점</t>
+          <t>빽다방 목포터미널점</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>전남 목포시 수문로 9 1층</t>
+          <t>전남 목포시 영산로 515 1층</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1115621359/home</t>
+          <t>https://m.place.naver.com/restaurant/1787597186/home</t>
         </is>
       </c>
     </row>
@@ -7782,22 +7774,22 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>30868225</t>
+          <t>476825539</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>파스쿠찌 목포장미의거리점</t>
+          <t>노을</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>전남 목포시 장미로 56 (상동) 상동 1003-1 1F</t>
+          <t>전남 목포시 해안로 2</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/30868225/home</t>
+          <t>https://m.place.naver.com/restaurant/476825539/home</t>
         </is>
       </c>
     </row>
@@ -7807,22 +7799,22 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>1616277675</t>
+          <t>1837361443</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>큰별스터디카페 포미점</t>
+          <t>컴포즈커피 목포옥암점</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>전남 목포시 포미로 8 2층 큰별스터디카페</t>
+          <t>전남 목포시 삼향천로 20</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1616277675/home</t>
+          <t>https://m.place.naver.com/restaurant/1837361443/home</t>
         </is>
       </c>
     </row>
@@ -7832,22 +7824,22 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>1239514290</t>
+          <t>1900269843</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>아이차</t>
+          <t>이디야커피 목포상동점</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>전남 목포시 복산길 16-1 1층</t>
+          <t>전남 목포시 하당로 264 청하빌딩 1층 102호</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1239514290/home</t>
+          <t>https://m.place.naver.com/restaurant/1900269843/home</t>
         </is>
       </c>
     </row>
@@ -7857,22 +7849,22 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>1178003742</t>
+          <t>37039388</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>와플랑 목포하당점</t>
+          <t>카페 밀물</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>전남 목포시 평화로 44 2층</t>
+          <t>전남 목포시 영산로 64 1층 카페 밀물</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1178003742/home</t>
+          <t>https://m.place.naver.com/restaurant/37039388/home</t>
         </is>
       </c>
     </row>
@@ -7882,22 +7874,22 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>1293693992</t>
+          <t>32674801</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>메가MGC커피 목포포미점</t>
+          <t>파스쿠찌 목포북항점</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>전남 목포시 용해지구로 11</t>
+          <t>전남 목포시 고하대로 730 (산정동)</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1293693992/home</t>
+          <t>https://m.place.naver.com/restaurant/32674801/home</t>
         </is>
       </c>
     </row>
@@ -7907,22 +7899,22 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>1608796131</t>
+          <t>564850177</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>대단한탕후루 목포석현점</t>
+          <t>비마이갸또</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>전남 목포시 영산로565번길 9 상가동 107호</t>
+          <t>전남 목포시 수문로 80</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1608796131/home</t>
+          <t>https://m.place.naver.com/restaurant/564850177/home</t>
         </is>
       </c>
     </row>
@@ -7932,22 +7924,22 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>1097320596</t>
+          <t>944293868</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>해피니스</t>
+          <t>오가다 목포포미연산점</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>전남 목포시 백년대로 288 1층</t>
+          <t>전남 목포시 연산백련로1번길 8-4 샤인빌 1층 오가다 목포포미연산점</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1097320596/home</t>
+          <t>https://m.place.naver.com/restaurant/944293868/home</t>
         </is>
       </c>
     </row>
@@ -7957,22 +7949,22 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>1062402751</t>
+          <t>1852478820</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>셀렉토커피 목포하당점</t>
+          <t>설빙 목포산정점</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>전남 목포시 옥암로 16</t>
+          <t>전남 목포시 청호로 107 2층</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1062402751/home</t>
+          <t>https://m.place.naver.com/restaurant/1852478820/home</t>
         </is>
       </c>
     </row>
@@ -7982,22 +7974,22 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>1055825674</t>
+          <t>1501147878</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>갑순이라이브 7080</t>
+          <t>카페브런치 1009</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>전남 목포시 통일대로 42-1 2층</t>
+          <t>전남 목포시 미항로 133 유현빌딩 4층 1009브런치카페</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1055825674/home</t>
+          <t>https://m.place.naver.com/restaurant/1501147878/home</t>
         </is>
       </c>
     </row>
@@ -8007,22 +7999,22 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>1850417071</t>
+          <t>1218980116</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>메가MGC커피 목포상동점</t>
+          <t>하루일기카페</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>전남 목포시 백년대로 324</t>
+          <t>전남 목포시 남악1로16번길 22-11 1층</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1850417071/home</t>
+          <t>https://m.place.naver.com/restaurant/1218980116/home</t>
         </is>
       </c>
     </row>
@@ -8032,22 +8024,22 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>1762533095</t>
+          <t>36665423</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>메가MGC커피 목포미항점</t>
+          <t>달콤커피 목포펠리시티몰점</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>전남 목포시 미항로 137-1 1층</t>
+          <t>전남 목포시 남악로 22-14 펠리시티몰 F동 달콤커피</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>https://m.place.naver.com/restaurant/1762533095/home</t>
+          <t>https://m.place.naver.com/restaurant/36665423/home</t>
         </is>
       </c>
     </row>
